--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1356127.332720403</v>
+        <v>1350189.023909228</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>148.274999212678</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>50.61552188340785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>312.7063934000619</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>75.84199783012949</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I12" t="n">
-        <v>7.638300348564727</v>
+        <v>7.638300348564719</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
@@ -1517,7 +1517,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.92765276725055</v>
+        <v>169.1651176590494</v>
       </c>
     </row>
     <row r="13">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.2595055311553</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5669519213864</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.49324417334927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.53020566777401</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>319.2093283588201</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F14" t="n">
-        <v>355.0254239328589</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H14" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>198.8905210960858</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -1697,16 +1697,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.84199783012949</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.638300348564727</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>125.2226514200486</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>59.94222562992262</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.59236062842883</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.2811567902616</v>
@@ -1821,19 +1821,19 @@
         <v>229.0696442509355</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5296095801456</v>
+        <v>125.5713875148872</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>25.41451176895775</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.61552188340782</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U17" t="n">
         <v>253.0160424770386</v>
@@ -1906,13 +1906,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>105.7773887723534</v>
       </c>
       <c r="X17" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -1934,16 +1934,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.247270902776358</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>154.0391103866676</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>34.5608774655563</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>61.59236062842906</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>262.0908715166544</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F20" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>355.0254239328592</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I20" t="n">
-        <v>50.61552188340782</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>44.54678142935628</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>26.19465571673746</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>79.42288038519249</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.49324417334925</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.44870495030928</v>
+        <v>195.9571058203515</v>
       </c>
       <c r="U22" t="n">
         <v>282.5296095801456</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2320,67 +2320,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>355.0254239328592</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>31.13910903871183</v>
+      </c>
+      <c r="H23" t="n">
+        <v>297.9069670906929</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>338.6857412035168</v>
+      </c>
+      <c r="W23" t="n">
         <v>355.0254239328592</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>312.7063934000621</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,22 +2402,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>57.4071687941676</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>98.01348119006596</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H25" t="n">
         <v>144.992301087403</v>
       </c>
       <c r="I25" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.4009143465886</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>150.7702711984242</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>148.274999212678</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="F26" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>50.62867500775889</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8836805229861</v>
+        <v>116.1282029243088</v>
       </c>
       <c r="V27" t="n">
-        <v>69.09574960644217</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.53202591119197</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5296095801456</v>
+        <v>155.9804246264378</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>317.2395852812489</v>
       </c>
       <c r="C29" t="n">
         <v>355.0254239328592</v>
       </c>
       <c r="D29" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.074829039615738</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.61552188340782</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>56.90570448981742</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>7.638300348564712</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U30" t="n">
         <v>207.8836805229861</v>
       </c>
       <c r="V30" t="n">
-        <v>114.4035291324833</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
@@ -2939,7 +2939,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5669519213864</v>
+        <v>154.1249402935428</v>
       </c>
       <c r="H31" t="n">
         <v>144.992301087403</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9486681269975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>229.0696442509355</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>117.5838796205092</v>
       </c>
       <c r="E32" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.992935461213266</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>28.53231787007829</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>170.3842387110332</v>
@@ -3176,7 +3176,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.4977277022349</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0531529602321239</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.3744605046376</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U34" t="n">
         <v>282.5296095801456</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>146.556162885177</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I35" t="n">
-        <v>14.79942630936929</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>355.0254239328591</v>
       </c>
       <c r="X35" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>355.0254239328592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.2076186657047</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>77.64220095390729</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>117.6609829984442</v>
@@ -3365,7 +3365,7 @@
         <v>75.84199783012947</v>
       </c>
       <c r="I36" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>170.3842387110332</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
@@ -3413,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5669519213864</v>
       </c>
       <c r="H37" t="n">
-        <v>144.992301087403</v>
+        <v>57.79138154384063</v>
       </c>
       <c r="I37" t="n">
         <v>101.5535788905865</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.99835230164246</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T37" t="n">
         <v>229.0696442509355</v>
@@ -3483,10 +3483,10 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>355.0254239328592</v>
       </c>
       <c r="G38" t="n">
-        <v>319.2093283588207</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.61552188340782</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>312.7063934000621</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>355.0254239328592</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>122.3358814986103</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>75.84199783012947</v>
       </c>
       <c r="I39" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3842387110332</v>
+        <v>133.4784096961938</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5669519213864</v>
       </c>
       <c r="H40" t="n">
-        <v>5.098685612930149</v>
+        <v>114.6628825624141</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S40" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5296095801456</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>355.025423932859</v>
       </c>
       <c r="F41" t="n">
-        <v>355.025423932859</v>
+        <v>260.3720351891532</v>
       </c>
       <c r="G41" t="n">
-        <v>14.79942630936926</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>297.9069670906929</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.4621965088955</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>36.17061821864235</v>
+        <v>109.5648906767083</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>207.8836805229861</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3903,22 +3903,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.0731779346441</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.9781466151479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>355.025423932859</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>312.7063934000622</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>355.025423932859</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>355.025423932859</v>
+        <v>312.7063934000621</v>
       </c>
       <c r="Y44" t="n">
-        <v>355.025423932859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.055464355854741</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>72.6035139104975</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.71363464785179</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.49324417334925</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T46" t="n">
         <v>229.0696442509355</v>
@@ -4194,10 +4194,10 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V46" t="n">
-        <v>41.8811406981287</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.40203391462871</v>
+        <v>946.5246288255419</v>
       </c>
       <c r="C11" t="n">
-        <v>28.40203391462871</v>
+        <v>946.5246288255419</v>
       </c>
       <c r="D11" t="n">
-        <v>28.40203391462871</v>
+        <v>946.5246288255419</v>
       </c>
       <c r="E11" t="n">
-        <v>28.40203391462871</v>
+        <v>796.7519023480893</v>
       </c>
       <c r="F11" t="n">
-        <v>28.40203391462871</v>
+        <v>438.1403630219691</v>
       </c>
       <c r="G11" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="H11" t="n">
-        <v>28.40203391462871</v>
+        <v>79.52882369584879</v>
       </c>
       <c r="I11" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0727921248346</v>
+        <v>100.0727921248354</v>
       </c>
       <c r="K11" t="n">
-        <v>240.4687168143662</v>
+        <v>240.468716814367</v>
       </c>
       <c r="L11" t="n">
-        <v>438.6284212562729</v>
+        <v>438.628421256274</v>
       </c>
       <c r="M11" t="n">
-        <v>679.7044080739719</v>
+        <v>679.7044080739729</v>
       </c>
       <c r="N11" t="n">
-        <v>927.6802318418071</v>
+        <v>927.6802318418082</v>
       </c>
       <c r="O11" t="n">
         <v>1153.168850648442</v>
@@ -5062,31 +5062,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R11" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S11" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T11" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="U11" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="V11" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.236651892989</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="X11" t="n">
-        <v>745.6251125668691</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="Y11" t="n">
-        <v>387.0135732407489</v>
+        <v>1305.136168151662</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>773.1965400290754</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="C12" t="n">
-        <v>622.5423095891676</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="D12" t="n">
-        <v>492.453342210648</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="E12" t="n">
-        <v>356.0068513215357</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="F12" t="n">
-        <v>231.5750452046675</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7255674284613</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="H12" t="n">
         <v>36.11748881216884</v>
       </c>
       <c r="I12" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J12" t="n">
-        <v>58.8570459887346</v>
+        <v>74.96952978355995</v>
       </c>
       <c r="K12" t="n">
-        <v>161.7101484975363</v>
+        <v>426.4446994770904</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1184894326825</v>
+        <v>594.8530404122367</v>
       </c>
       <c r="M12" t="n">
-        <v>676.4910279555412</v>
+        <v>803.9595952872523</v>
       </c>
       <c r="N12" t="n">
         <v>1027.966197649072</v>
@@ -5147,25 +5147,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S12" t="n">
-        <v>1420.101695731436</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="T12" t="n">
-        <v>1420.101695731436</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="U12" t="n">
-        <v>1420.101695731436</v>
+        <v>925.5637487953577</v>
       </c>
       <c r="V12" t="n">
-        <v>1420.101695731436</v>
+        <v>703.0237471664248</v>
       </c>
       <c r="W12" t="n">
-        <v>1189.984449864723</v>
+        <v>472.9065012997116</v>
       </c>
       <c r="X12" t="n">
-        <v>1000.677372214734</v>
+        <v>283.5994236497233</v>
       </c>
       <c r="Y12" t="n">
-        <v>924.9928744700368</v>
+        <v>112.7255674284612</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>834.3643572490871</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="C13" t="n">
-        <v>664.1592393150763</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="D13" t="n">
-        <v>508.526126217591</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="E13" t="n">
-        <v>352.9673140767935</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="F13" t="n">
-        <v>195.6413792897665</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="G13" t="n">
-        <v>28.40203391462871</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="H13" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I13" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J13" t="n">
-        <v>68.94056019848827</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K13" t="n">
-        <v>101.4651854132447</v>
+        <v>60.92665912938518</v>
       </c>
       <c r="L13" t="n">
-        <v>413.4502054188089</v>
+        <v>121.9857500741728</v>
       </c>
       <c r="M13" t="n">
-        <v>755.6366599715778</v>
+        <v>464.1722046269417</v>
       </c>
       <c r="N13" t="n">
-        <v>1091.014338503092</v>
+        <v>799.5498831584562</v>
       </c>
       <c r="O13" t="n">
-        <v>1388.44749773776</v>
+        <v>1102.82494164499</v>
       </c>
       <c r="P13" t="n">
-        <v>1420.101695731436</v>
+        <v>1342.983276020871</v>
       </c>
       <c r="Q13" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R13" t="n">
-        <v>1420.101695731436</v>
+        <v>1341.825691515932</v>
       </c>
       <c r="S13" t="n">
-        <v>1420.101695731436</v>
+        <v>1156.693209909607</v>
       </c>
       <c r="T13" t="n">
-        <v>1420.101695731436</v>
+        <v>925.309730868258</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.101695731436</v>
+        <v>639.926286847909</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.101695731436</v>
+        <v>373.9469416687332</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.101695731436</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.021373514419</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="Y13" t="n">
-        <v>962.9093123310622</v>
+        <v>342.0982490750221</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1420.101695731436</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="C14" t="n">
-        <v>1420.101695731436</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="D14" t="n">
-        <v>1420.101695731436</v>
+        <v>745.6251125668691</v>
       </c>
       <c r="E14" t="n">
-        <v>1097.668030722527</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="F14" t="n">
-        <v>739.0564913964063</v>
+        <v>387.0135732407489</v>
       </c>
       <c r="G14" t="n">
-        <v>380.4449520702861</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H14" t="n">
-        <v>79.52882369584879</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I14" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0727921248351</v>
+        <v>100.0727921248348</v>
       </c>
       <c r="K14" t="n">
-        <v>240.4687168143666</v>
+        <v>240.4687168143665</v>
       </c>
       <c r="L14" t="n">
-        <v>438.6284212562736</v>
+        <v>438.6284212562734</v>
       </c>
       <c r="M14" t="n">
         <v>679.7044080739724</v>
       </c>
       <c r="N14" t="n">
-        <v>927.6802318418077</v>
+        <v>927.6802318418078</v>
       </c>
       <c r="O14" t="n">
         <v>1153.168850648442</v>
@@ -5305,25 +5305,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S14" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T14" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="U14" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="V14" t="n">
-        <v>1420.101695731436</v>
+        <v>1104.236651892989</v>
       </c>
       <c r="W14" t="n">
-        <v>1420.101695731436</v>
+        <v>1104.236651892989</v>
       </c>
       <c r="X14" t="n">
-        <v>1420.101695731436</v>
+        <v>1104.236651892989</v>
       </c>
       <c r="Y14" t="n">
-        <v>1420.101695731436</v>
+        <v>1104.236651892989</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>773.1965400290754</v>
+        <v>445.5917226221685</v>
       </c>
       <c r="C15" t="n">
-        <v>622.5423095891676</v>
+        <v>294.9374921822607</v>
       </c>
       <c r="D15" t="n">
-        <v>492.453342210648</v>
+        <v>164.848524803741</v>
       </c>
       <c r="E15" t="n">
-        <v>356.0068513215357</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="F15" t="n">
-        <v>231.5750452046675</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7255674284613</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H15" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I15" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J15" t="n">
-        <v>58.8570459887346</v>
+        <v>58.85704598873465</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7101484975363</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1184894326825</v>
+        <v>330.1184894326827</v>
       </c>
       <c r="M15" t="n">
-        <v>626.2802927575725</v>
+        <v>539.2250443076985</v>
       </c>
       <c r="N15" t="n">
-        <v>977.7554624511029</v>
+        <v>763.2316466695182</v>
       </c>
       <c r="O15" t="n">
-        <v>1168.234873491001</v>
+        <v>953.7110577094163</v>
       </c>
       <c r="P15" t="n">
-        <v>1308.544900753903</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q15" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R15" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="S15" t="n">
-        <v>1420.101695731436</v>
+        <v>1307.652556102448</v>
       </c>
       <c r="T15" t="n">
-        <v>1420.101695731436</v>
+        <v>1135.547264475141</v>
       </c>
       <c r="U15" t="n">
-        <v>1420.101695731436</v>
+        <v>925.5637487953575</v>
       </c>
       <c r="V15" t="n">
-        <v>1420.101695731436</v>
+        <v>925.5637487953575</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.614169044518</v>
+        <v>695.4465029286443</v>
       </c>
       <c r="X15" t="n">
-        <v>1104.30709139453</v>
+        <v>506.139425278656</v>
       </c>
       <c r="Y15" t="n">
-        <v>924.9928744700368</v>
+        <v>445.5917226221685</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.40203391462871</v>
+        <v>468.4258698405313</v>
       </c>
       <c r="C16" t="n">
-        <v>28.40203391462871</v>
+        <v>298.2207519065205</v>
       </c>
       <c r="D16" t="n">
-        <v>28.40203391462871</v>
+        <v>298.2207519065205</v>
       </c>
       <c r="E16" t="n">
-        <v>28.40203391462871</v>
+        <v>298.2207519065205</v>
       </c>
       <c r="F16" t="n">
-        <v>28.40203391462871</v>
+        <v>298.2207519065205</v>
       </c>
       <c r="G16" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="H16" t="n">
-        <v>28.40203391462871</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I16" t="n">
-        <v>28.40203391462871</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J16" t="n">
-        <v>68.94056019848827</v>
+        <v>68.9405601984883</v>
       </c>
       <c r="K16" t="n">
         <v>266.3202581559261</v>
@@ -5445,43 +5445,43 @@
         <v>578.3052781614904</v>
       </c>
       <c r="M16" t="n">
-        <v>914.8969750570948</v>
+        <v>644.8014124057115</v>
       </c>
       <c r="N16" t="n">
-        <v>1250.274653588609</v>
+        <v>980.179090937226</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.748162539674</v>
+        <v>1179.943361355555</v>
       </c>
       <c r="P16" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q16" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R16" t="n">
-        <v>1341.825691515931</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S16" t="n">
-        <v>1156.693209909607</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T16" t="n">
-        <v>925.3097308682576</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U16" t="n">
-        <v>639.9262868479085</v>
+        <v>876.7459497151892</v>
       </c>
       <c r="V16" t="n">
-        <v>373.9469416687327</v>
+        <v>876.7459497151892</v>
       </c>
       <c r="W16" t="n">
-        <v>90.61653959991037</v>
+        <v>876.7459497151892</v>
       </c>
       <c r="X16" t="n">
-        <v>90.61653959991037</v>
+        <v>876.7459497151892</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.61653959991037</v>
+        <v>653.6338885318326</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>105.200047704897</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="C17" t="n">
-        <v>105.200047704897</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="D17" t="n">
-        <v>79.52882369584874</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="E17" t="n">
-        <v>79.52882369584874</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="F17" t="n">
-        <v>79.52882369584874</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G17" t="n">
-        <v>79.52882369584874</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H17" t="n">
-        <v>79.52882369584874</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I17" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J17" t="n">
-        <v>100.0727921248348</v>
+        <v>100.0727921248349</v>
       </c>
       <c r="K17" t="n">
-        <v>240.4687168143665</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L17" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M17" t="n">
         <v>679.7044080739724</v>
       </c>
       <c r="N17" t="n">
-        <v>927.6802318418078</v>
+        <v>927.6802318418079</v>
       </c>
       <c r="O17" t="n">
         <v>1153.168850648442</v>
@@ -5536,31 +5536,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q17" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R17" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S17" t="n">
-        <v>1420.101695731436</v>
+        <v>1305.136168151663</v>
       </c>
       <c r="T17" t="n">
-        <v>1420.101695731436</v>
+        <v>1091.537989859849</v>
       </c>
       <c r="U17" t="n">
-        <v>1164.529935653619</v>
+        <v>835.9662297820323</v>
       </c>
       <c r="V17" t="n">
-        <v>822.4231263571374</v>
+        <v>493.8594204855507</v>
       </c>
       <c r="W17" t="n">
-        <v>822.4231263571374</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="X17" t="n">
-        <v>463.8115870310172</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="Y17" t="n">
-        <v>105.200047704897</v>
+        <v>387.0135732407492</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.5423095891676</v>
+        <v>445.5917226221685</v>
       </c>
       <c r="C18" t="n">
-        <v>622.5423095891676</v>
+        <v>294.9374921822607</v>
       </c>
       <c r="D18" t="n">
-        <v>492.453342210648</v>
+        <v>164.848524803741</v>
       </c>
       <c r="E18" t="n">
-        <v>356.0068513215357</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="F18" t="n">
-        <v>231.5750452046675</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7255674284612</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H18" t="n">
-        <v>36.11748881216884</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I18" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J18" t="n">
-        <v>58.85704598873465</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K18" t="n">
-        <v>215.2795570464613</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L18" t="n">
-        <v>383.6878979816077</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M18" t="n">
-        <v>592.7944528566234</v>
+        <v>733.9600392874258</v>
       </c>
       <c r="N18" t="n">
-        <v>816.8010552184431</v>
+        <v>957.9666416492456</v>
       </c>
       <c r="O18" t="n">
-        <v>1007.280466258341</v>
+        <v>1148.446052689144</v>
       </c>
       <c r="P18" t="n">
-        <v>1358.755635951872</v>
+        <v>1308.544900753904</v>
       </c>
       <c r="Q18" t="n">
-        <v>1420.101695731436</v>
+        <v>1369.890960533468</v>
       </c>
       <c r="R18" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S18" t="n">
-        <v>1420.101695731436</v>
+        <v>1418.841826132673</v>
       </c>
       <c r="T18" t="n">
-        <v>1420.101695731436</v>
+        <v>1246.736534505367</v>
       </c>
       <c r="U18" t="n">
-        <v>1420.101695731436</v>
+        <v>1036.753018825583</v>
       </c>
       <c r="V18" t="n">
-        <v>1197.561694102503</v>
+        <v>814.2130171966496</v>
       </c>
       <c r="W18" t="n">
-        <v>967.4444482357899</v>
+        <v>814.2130171966496</v>
       </c>
       <c r="X18" t="n">
-        <v>778.1373705858016</v>
+        <v>624.9059395466613</v>
       </c>
       <c r="Y18" t="n">
-        <v>622.5423095891676</v>
+        <v>445.5917226221685</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.40203391462872</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="C19" t="n">
-        <v>28.40203391462872</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="D19" t="n">
-        <v>28.40203391462872</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="E19" t="n">
-        <v>28.40203391462872</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="F19" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G19" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H19" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I19" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J19" t="n">
-        <v>28.40203391462872</v>
+        <v>68.94056019848833</v>
       </c>
       <c r="K19" t="n">
-        <v>225.7817318720666</v>
+        <v>266.3202581559262</v>
       </c>
       <c r="L19" t="n">
-        <v>537.7667518776309</v>
+        <v>327.3793491007139</v>
       </c>
       <c r="M19" t="n">
-        <v>879.9532064303999</v>
+        <v>454.5912891394218</v>
       </c>
       <c r="N19" t="n">
-        <v>1215.330884961914</v>
+        <v>789.9689676709363</v>
       </c>
       <c r="O19" t="n">
-        <v>1388.44749773776</v>
+        <v>1093.24402615747</v>
       </c>
       <c r="P19" t="n">
-        <v>1420.101695731436</v>
+        <v>1333.402360533351</v>
       </c>
       <c r="Q19" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="R19" t="n">
         <v>1341.825691515932</v>
       </c>
       <c r="S19" t="n">
-        <v>1156.693209909607</v>
+        <v>1156.693209909608</v>
       </c>
       <c r="T19" t="n">
-        <v>925.3097308682578</v>
+        <v>925.3097308682587</v>
       </c>
       <c r="U19" t="n">
-        <v>639.9262868479087</v>
+        <v>639.9262868479096</v>
       </c>
       <c r="V19" t="n">
-        <v>373.946941668733</v>
+        <v>605.016309609974</v>
       </c>
       <c r="W19" t="n">
-        <v>90.6165395999106</v>
+        <v>605.016309609974</v>
       </c>
       <c r="X19" t="n">
-        <v>28.40203391462872</v>
+        <v>370.935987392957</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.40203391462872</v>
+        <v>370.935987392957</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="C20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="D20" t="n">
-        <v>1061.490156405316</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="E20" t="n">
-        <v>796.7519023480897</v>
+        <v>687.9297016151863</v>
       </c>
       <c r="F20" t="n">
-        <v>438.1403630219692</v>
+        <v>687.9297016151863</v>
       </c>
       <c r="G20" t="n">
-        <v>79.52882369584876</v>
+        <v>329.318162289066</v>
       </c>
       <c r="H20" t="n">
-        <v>79.52882369584876</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I20" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J20" t="n">
-        <v>100.0727921248349</v>
+        <v>100.0727921248348</v>
       </c>
       <c r="K20" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143665</v>
       </c>
       <c r="L20" t="n">
-        <v>438.6284212562736</v>
+        <v>438.6284212562731</v>
       </c>
       <c r="M20" t="n">
-        <v>679.7044080739724</v>
+        <v>679.704408073972</v>
       </c>
       <c r="N20" t="n">
-        <v>927.6802318418079</v>
+        <v>927.6802318418074</v>
       </c>
       <c r="O20" t="n">
         <v>1153.168850648442</v>
@@ -5773,31 +5773,31 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q20" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R20" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S20" t="n">
-        <v>1420.101695731437</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T20" t="n">
-        <v>1420.101695731437</v>
+        <v>1091.537989859848</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="V20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="W20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="X20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
       <c r="Y20" t="n">
-        <v>1420.101695731437</v>
+        <v>1046.541240941307</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.1075726505558</v>
+        <v>669.5668208492805</v>
       </c>
       <c r="C21" t="n">
-        <v>492.453342210648</v>
+        <v>518.9125904093727</v>
       </c>
       <c r="D21" t="n">
         <v>492.453342210648</v>
@@ -5822,61 +5822,61 @@
         <v>231.5750452046675</v>
       </c>
       <c r="G21" t="n">
-        <v>112.7255674284613</v>
+        <v>112.7255674284612</v>
       </c>
       <c r="H21" t="n">
-        <v>36.11748881216885</v>
+        <v>36.11748881216884</v>
       </c>
       <c r="I21" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J21" t="n">
-        <v>74.96952978356006</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K21" t="n">
-        <v>426.4446994770907</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L21" t="n">
-        <v>594.8530404122371</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M21" t="n">
-        <v>803.9595952872527</v>
+        <v>733.9600392874258</v>
       </c>
       <c r="N21" t="n">
-        <v>1027.966197649072</v>
+        <v>957.9666416492456</v>
       </c>
       <c r="O21" t="n">
-        <v>1218.44560868897</v>
+        <v>1148.446052689144</v>
       </c>
       <c r="P21" t="n">
-        <v>1358.755635951873</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q21" t="n">
-        <v>1420.101695731437</v>
+        <v>1369.890960533467</v>
       </c>
       <c r="R21" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S21" t="n">
-        <v>1307.652556102449</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T21" t="n">
-        <v>1307.652556102449</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.669040422665</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="V21" t="n">
-        <v>875.1290387937318</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="W21" t="n">
-        <v>794.9039070915171</v>
+        <v>1189.984449864723</v>
       </c>
       <c r="X21" t="n">
-        <v>794.9039070915171</v>
+        <v>1000.677372214735</v>
       </c>
       <c r="Y21" t="n">
-        <v>794.9039070915171</v>
+        <v>821.3631552902418</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>341.3610817991411</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="C22" t="n">
-        <v>341.3610817991411</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="D22" t="n">
-        <v>185.7279687016558</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="E22" t="n">
-        <v>185.7279687016558</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="F22" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="G22" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H22" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I22" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="J22" t="n">
-        <v>68.94056019848833</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K22" t="n">
-        <v>101.4651854132448</v>
+        <v>225.7817318720666</v>
       </c>
       <c r="L22" t="n">
-        <v>199.1041697847388</v>
+        <v>537.7667518776309</v>
       </c>
       <c r="M22" t="n">
-        <v>541.2906243375078</v>
+        <v>879.9532064303999</v>
       </c>
       <c r="N22" t="n">
-        <v>876.6683028690222</v>
+        <v>1041.770517206404</v>
       </c>
       <c r="O22" t="n">
-        <v>1179.943361355556</v>
+        <v>1093.244026157469</v>
       </c>
       <c r="P22" t="n">
-        <v>1420.101695731437</v>
+        <v>1333.40236053335</v>
       </c>
       <c r="Q22" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R22" t="n">
-        <v>1341.825691515932</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S22" t="n">
-        <v>1156.693209909608</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T22" t="n">
-        <v>1115.835932182023</v>
+        <v>1222.165225205828</v>
       </c>
       <c r="U22" t="n">
-        <v>830.4524881616735</v>
+        <v>936.7817811854793</v>
       </c>
       <c r="V22" t="n">
-        <v>564.4731429824977</v>
+        <v>670.8024360063035</v>
       </c>
       <c r="W22" t="n">
-        <v>564.4731429824977</v>
+        <v>670.8024360063035</v>
       </c>
       <c r="X22" t="n">
-        <v>564.4731429824977</v>
+        <v>436.7221137892867</v>
       </c>
       <c r="Y22" t="n">
-        <v>341.3610817991411</v>
+        <v>213.61005260593</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1104.23665189299</v>
+        <v>719.3833471088349</v>
       </c>
       <c r="C23" t="n">
-        <v>745.6251125668697</v>
+        <v>719.3833471088349</v>
       </c>
       <c r="D23" t="n">
-        <v>387.0135732407492</v>
+        <v>360.7718077827144</v>
       </c>
       <c r="E23" t="n">
-        <v>28.40203391462874</v>
+        <v>360.7718077827144</v>
       </c>
       <c r="F23" t="n">
-        <v>28.40203391462874</v>
+        <v>360.7718077827144</v>
       </c>
       <c r="G23" t="n">
-        <v>28.40203391462874</v>
+        <v>329.3181622890661</v>
       </c>
       <c r="H23" t="n">
         <v>28.40203391462874</v>
@@ -5989,16 +5989,16 @@
         <v>28.40203391462874</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0727921248347</v>
+        <v>100.0727921248349</v>
       </c>
       <c r="K23" t="n">
-        <v>240.4687168143665</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L23" t="n">
-        <v>438.6284212562735</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M23" t="n">
-        <v>679.7044080739726</v>
+        <v>679.7044080739724</v>
       </c>
       <c r="N23" t="n">
         <v>927.6802318418079</v>
@@ -6007,7 +6007,7 @@
         <v>1153.168850648442</v>
       </c>
       <c r="P23" t="n">
-        <v>1323.192519378012</v>
+        <v>1323.192519378011</v>
       </c>
       <c r="Q23" t="n">
         <v>1419.560928496659</v>
@@ -6025,16 +6025,16 @@
         <v>1420.101695731437</v>
       </c>
       <c r="V23" t="n">
-        <v>1104.23665189299</v>
+        <v>1077.994886434955</v>
       </c>
       <c r="W23" t="n">
-        <v>1104.23665189299</v>
+        <v>719.3833471088349</v>
       </c>
       <c r="X23" t="n">
-        <v>1104.23665189299</v>
+        <v>719.3833471088349</v>
       </c>
       <c r="Y23" t="n">
-        <v>1104.23665189299</v>
+        <v>719.3833471088349</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>506.6610817614435</v>
+        <v>237.0433035405644</v>
       </c>
       <c r="C24" t="n">
-        <v>356.0068513215357</v>
+        <v>86.38907310065662</v>
       </c>
       <c r="D24" t="n">
-        <v>356.0068513215357</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="E24" t="n">
-        <v>356.0068513215357</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="F24" t="n">
-        <v>231.5750452046675</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G24" t="n">
-        <v>112.7255674284613</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H24" t="n">
-        <v>36.11748881216885</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I24" t="n">
         <v>28.40203391462874</v>
       </c>
       <c r="J24" t="n">
-        <v>58.85704598873467</v>
+        <v>145.9122944386093</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7101484975364</v>
+        <v>248.765396947411</v>
       </c>
       <c r="L24" t="n">
-        <v>383.6465465606356</v>
+        <v>417.1737378825574</v>
       </c>
       <c r="M24" t="n">
-        <v>592.7531014356513</v>
+        <v>626.2802927575731</v>
       </c>
       <c r="N24" t="n">
-        <v>816.759703797471</v>
+        <v>977.7554624511037</v>
       </c>
       <c r="O24" t="n">
         <v>1168.234873491002</v>
@@ -6095,25 +6095,25 @@
         <v>1420.101695731437</v>
       </c>
       <c r="S24" t="n">
-        <v>1321.098179377835</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T24" t="n">
-        <v>1321.098179377835</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="U24" t="n">
-        <v>1111.114663698051</v>
+        <v>1210.118180051653</v>
       </c>
       <c r="V24" t="n">
-        <v>888.5746620691179</v>
+        <v>987.5781784227199</v>
       </c>
       <c r="W24" t="n">
-        <v>658.4574162024048</v>
+        <v>757.4609325560068</v>
       </c>
       <c r="X24" t="n">
-        <v>658.4574162024048</v>
+        <v>568.1538549060185</v>
       </c>
       <c r="Y24" t="n">
-        <v>658.4574162024048</v>
+        <v>388.8396379815258</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>277.4382763166384</v>
+        <v>810.6161091003319</v>
       </c>
       <c r="C25" t="n">
-        <v>277.4382763166384</v>
+        <v>810.6161091003319</v>
       </c>
       <c r="D25" t="n">
-        <v>277.4382763166384</v>
+        <v>654.9829960028467</v>
       </c>
       <c r="E25" t="n">
-        <v>277.4382763166384</v>
+        <v>499.4241838620491</v>
       </c>
       <c r="F25" t="n">
-        <v>277.4382763166384</v>
+        <v>342.0982490750221</v>
       </c>
       <c r="G25" t="n">
-        <v>277.4382763166384</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I25" t="n">
         <v>28.40203391462874</v>
@@ -6153,19 +6153,19 @@
         <v>225.7817318720666</v>
       </c>
       <c r="L25" t="n">
-        <v>537.7667518776309</v>
+        <v>286.8408228168543</v>
       </c>
       <c r="M25" t="n">
-        <v>879.9532064303999</v>
+        <v>629.0272773696233</v>
       </c>
       <c r="N25" t="n">
-        <v>1215.330884961914</v>
+        <v>964.4049559011378</v>
       </c>
       <c r="O25" t="n">
-        <v>1388.447497737761</v>
+        <v>1093.24402615747</v>
       </c>
       <c r="P25" t="n">
-        <v>1420.101695731437</v>
+        <v>1333.402360533351</v>
       </c>
       <c r="Q25" t="n">
         <v>1420.101695731437</v>
@@ -6174,25 +6174,25 @@
         <v>1420.101695731437</v>
       </c>
       <c r="S25" t="n">
-        <v>1311.615923664176</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T25" t="n">
-        <v>1080.232444622827</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="U25" t="n">
-        <v>794.8490006024776</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="V25" t="n">
-        <v>794.8490006024776</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="W25" t="n">
-        <v>511.5185985336553</v>
+        <v>1267.808492500705</v>
       </c>
       <c r="X25" t="n">
-        <v>277.4382763166384</v>
+        <v>1033.728170283689</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.4382763166384</v>
+        <v>810.6161091003319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>946.5246288255419</v>
+        <v>796.7519023480897</v>
       </c>
       <c r="C26" t="n">
-        <v>946.5246288255419</v>
+        <v>438.1403630219692</v>
       </c>
       <c r="D26" t="n">
-        <v>946.5246288255419</v>
+        <v>438.1403630219692</v>
       </c>
       <c r="E26" t="n">
-        <v>796.7519023480893</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="F26" t="n">
-        <v>438.1403630219691</v>
+        <v>79.52882369584876</v>
       </c>
       <c r="G26" t="n">
         <v>79.52882369584876</v>
@@ -6223,55 +6223,55 @@
         <v>79.52882369584876</v>
       </c>
       <c r="I26" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J26" t="n">
-        <v>100.0727921248348</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K26" t="n">
         <v>240.4687168143665</v>
       </c>
       <c r="L26" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562735</v>
       </c>
       <c r="M26" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739726</v>
       </c>
       <c r="N26" t="n">
-        <v>927.6802318418078</v>
+        <v>927.6802318418079</v>
       </c>
       <c r="O26" t="n">
         <v>1153.168850648442</v>
       </c>
       <c r="P26" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.192519378012</v>
       </c>
       <c r="Q26" t="n">
         <v>1419.560928496659</v>
       </c>
       <c r="R26" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S26" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T26" t="n">
-        <v>1305.136168151662</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="U26" t="n">
-        <v>1305.136168151662</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="V26" t="n">
-        <v>1305.136168151662</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="W26" t="n">
-        <v>946.5246288255419</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="X26" t="n">
-        <v>946.5246288255419</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="Y26" t="n">
-        <v>946.5246288255419</v>
+        <v>1155.36344167421</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>277.3404790693547</v>
+        <v>427.084753196669</v>
       </c>
       <c r="C27" t="n">
-        <v>277.3404790693547</v>
+        <v>427.084753196669</v>
       </c>
       <c r="D27" t="n">
-        <v>147.251511690835</v>
+        <v>296.9957858181493</v>
       </c>
       <c r="E27" t="n">
-        <v>147.251511690835</v>
+        <v>160.549294929037</v>
       </c>
       <c r="F27" t="n">
-        <v>147.251511690835</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="G27" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="H27" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="I27" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J27" t="n">
-        <v>58.85704598873465</v>
+        <v>58.85704598873467</v>
       </c>
       <c r="K27" t="n">
-        <v>376.2339642791211</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L27" t="n">
-        <v>544.6423052142675</v>
+        <v>330.1184894326828</v>
       </c>
       <c r="M27" t="n">
-        <v>753.7488600892832</v>
+        <v>539.2250443076985</v>
       </c>
       <c r="N27" t="n">
-        <v>977.755462451103</v>
+        <v>763.2316466695182</v>
       </c>
       <c r="O27" t="n">
-        <v>1168.234873491001</v>
+        <v>953.7110577094163</v>
       </c>
       <c r="P27" t="n">
-        <v>1308.544900753903</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q27" t="n">
-        <v>1369.890960533467</v>
+        <v>1369.890960533468</v>
       </c>
       <c r="R27" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S27" t="n">
-        <v>1307.652556102448</v>
+        <v>1307.652556102449</v>
       </c>
       <c r="T27" t="n">
-        <v>1307.652556102448</v>
+        <v>1135.547264475142</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.669040422664</v>
+        <v>1018.246049400083</v>
       </c>
       <c r="V27" t="n">
-        <v>1027.87535395151</v>
+        <v>795.70604777115</v>
       </c>
       <c r="W27" t="n">
-        <v>797.7581080847972</v>
+        <v>795.70604777115</v>
       </c>
       <c r="X27" t="n">
-        <v>608.4510304348088</v>
+        <v>606.3989701211617</v>
       </c>
       <c r="Y27" t="n">
-        <v>429.136813510316</v>
+        <v>427.084753196669</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9814065313828</v>
+        <v>354.165963989437</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9814065313828</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9814065313828</v>
+        <v>183.9608460554262</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G28" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H28" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I28" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J28" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="K28" t="n">
-        <v>225.7817318720666</v>
+        <v>60.92665912938522</v>
       </c>
       <c r="L28" t="n">
-        <v>537.7667518776309</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M28" t="n">
-        <v>879.9532064303999</v>
+        <v>715.0981336877185</v>
       </c>
       <c r="N28" t="n">
-        <v>1215.330884961914</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O28" t="n">
-        <v>1388.44749773776</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P28" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="Q28" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="R28" t="n">
-        <v>1382.190558447404</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S28" t="n">
-        <v>1197.058076841079</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T28" t="n">
-        <v>965.67459779973</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="U28" t="n">
-        <v>680.2911537793809</v>
+        <v>1262.545711260288</v>
       </c>
       <c r="V28" t="n">
-        <v>414.3118086002052</v>
+        <v>996.5663660811119</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9814065313828</v>
+        <v>996.5663660811119</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9814065313828</v>
+        <v>762.486043864095</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9814065313828</v>
+        <v>539.3739826807383</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.52993565362</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="C29" t="n">
-        <v>805.9183963274995</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="D29" t="n">
-        <v>447.3068570013791</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="E29" t="n">
-        <v>88.69531767525859</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="F29" t="n">
-        <v>79.52882369584876</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G29" t="n">
-        <v>79.52882369584876</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H29" t="n">
-        <v>79.52882369584876</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I29" t="n">
         <v>28.40203391462874</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0727921248349</v>
+        <v>100.0727921248354</v>
       </c>
       <c r="K29" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143672</v>
       </c>
       <c r="L29" t="n">
-        <v>438.6284212562736</v>
+        <v>438.6284212562742</v>
       </c>
       <c r="M29" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739734</v>
       </c>
       <c r="N29" t="n">
-        <v>927.6802318418079</v>
+        <v>927.6802318418087</v>
       </c>
       <c r="O29" t="n">
-        <v>1153.168850648442</v>
+        <v>1153.168850648443</v>
       </c>
       <c r="P29" t="n">
-        <v>1323.192519378011</v>
+        <v>1323.192519378012</v>
       </c>
       <c r="Q29" t="n">
         <v>1419.560928496659</v>
@@ -6490,25 +6490,25 @@
         <v>1420.101695731437</v>
       </c>
       <c r="S29" t="n">
-        <v>1420.101695731437</v>
+        <v>1305.136168151663</v>
       </c>
       <c r="T29" t="n">
-        <v>1420.101695731437</v>
+        <v>1305.136168151663</v>
       </c>
       <c r="U29" t="n">
-        <v>1164.52993565362</v>
+        <v>1049.564408073846</v>
       </c>
       <c r="V29" t="n">
-        <v>1164.52993565362</v>
+        <v>707.4575987773643</v>
       </c>
       <c r="W29" t="n">
-        <v>1164.52993565362</v>
+        <v>707.4575987773643</v>
       </c>
       <c r="X29" t="n">
-        <v>1164.52993565362</v>
+        <v>707.4575987773643</v>
       </c>
       <c r="Y29" t="n">
-        <v>1164.52993565362</v>
+        <v>707.4575987773643</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>231.5750452046675</v>
+        <v>244.2522288377508</v>
       </c>
       <c r="C30" t="n">
-        <v>231.5750452046675</v>
+        <v>93.59799839784301</v>
       </c>
       <c r="D30" t="n">
-        <v>231.5750452046675</v>
+        <v>93.59799839784301</v>
       </c>
       <c r="E30" t="n">
-        <v>231.5750452046675</v>
+        <v>93.59799839784301</v>
       </c>
       <c r="F30" t="n">
-        <v>231.5750452046675</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="G30" t="n">
-        <v>112.7255674284613</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="H30" t="n">
         <v>36.11748881216885</v>
@@ -6557,37 +6557,37 @@
         <v>763.2316466695182</v>
       </c>
       <c r="O30" t="n">
-        <v>1114.706816363049</v>
+        <v>953.7110577094163</v>
       </c>
       <c r="P30" t="n">
-        <v>1308.544900753904</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q30" t="n">
-        <v>1369.890960533468</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="R30" t="n">
         <v>1420.101695731437</v>
       </c>
       <c r="S30" t="n">
-        <v>1307.652556102449</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T30" t="n">
-        <v>1307.652556102449</v>
+        <v>1247.996404104131</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.669040422665</v>
+        <v>1038.012888424347</v>
       </c>
       <c r="V30" t="n">
-        <v>982.109920086823</v>
+        <v>815.4728867954136</v>
       </c>
       <c r="W30" t="n">
-        <v>751.9926742201098</v>
+        <v>585.3556409287005</v>
       </c>
       <c r="X30" t="n">
-        <v>562.6855965701216</v>
+        <v>396.0485632787122</v>
       </c>
       <c r="Y30" t="n">
-        <v>383.3713796456288</v>
+        <v>396.0485632787122</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>342.0982490750221</v>
+        <v>486.0994737129473</v>
       </c>
       <c r="C31" t="n">
-        <v>342.0982490750221</v>
+        <v>486.0994737129473</v>
       </c>
       <c r="D31" t="n">
-        <v>342.0982490750221</v>
+        <v>486.0994737129473</v>
       </c>
       <c r="E31" t="n">
-        <v>342.0982490750221</v>
+        <v>330.5406615721498</v>
       </c>
       <c r="F31" t="n">
-        <v>342.0982490750221</v>
+        <v>330.5406615721498</v>
       </c>
       <c r="G31" t="n">
         <v>174.8589036998843</v>
@@ -6621,22 +6621,22 @@
         <v>28.40203391462874</v>
       </c>
       <c r="J31" t="n">
-        <v>68.94056019848833</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="K31" t="n">
-        <v>266.3202581559262</v>
+        <v>60.92665912938522</v>
       </c>
       <c r="L31" t="n">
-        <v>578.3052781614904</v>
+        <v>320.908970968858</v>
       </c>
       <c r="M31" t="n">
-        <v>920.4917327142593</v>
+        <v>663.095425521627</v>
       </c>
       <c r="N31" t="n">
-        <v>1041.770517206405</v>
+        <v>998.4731040531415</v>
       </c>
       <c r="O31" t="n">
-        <v>1093.24402615747</v>
+        <v>1301.748162539675</v>
       </c>
       <c r="P31" t="n">
         <v>1333.402360533351</v>
@@ -6648,25 +6648,25 @@
         <v>1420.101695731437</v>
       </c>
       <c r="S31" t="n">
-        <v>1310.052536007197</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T31" t="n">
-        <v>1078.669056965848</v>
+        <v>1188.718216690088</v>
       </c>
       <c r="U31" t="n">
-        <v>793.2856129454991</v>
+        <v>1188.718216690088</v>
       </c>
       <c r="V31" t="n">
-        <v>527.3062677663233</v>
+        <v>1188.718216690088</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3062677663233</v>
+        <v>905.3878146212655</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3062677663233</v>
+        <v>671.3074924042486</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3062677663233</v>
+        <v>671.3074924042486</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>690.952868747725</v>
+        <v>505.7851688170211</v>
       </c>
       <c r="C32" t="n">
-        <v>690.952868747725</v>
+        <v>505.7851688170211</v>
       </c>
       <c r="D32" t="n">
-        <v>690.952868747725</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="E32" t="n">
-        <v>332.3413294216047</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="F32" t="n">
-        <v>332.3413294216047</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G32" t="n">
-        <v>332.3413294216047</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H32" t="n">
-        <v>31.42520104716738</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I32" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J32" t="n">
-        <v>100.0727921248348</v>
+        <v>100.0727921248349</v>
       </c>
       <c r="K32" t="n">
-        <v>240.4687168143665</v>
+        <v>240.4687168143664</v>
       </c>
       <c r="L32" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562736</v>
       </c>
       <c r="M32" t="n">
         <v>679.7044080739724</v>
@@ -6724,28 +6724,28 @@
         <v>1419.560928496659</v>
       </c>
       <c r="R32" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S32" t="n">
-        <v>1305.136168151662</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T32" t="n">
-        <v>1305.136168151662</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="U32" t="n">
-        <v>1049.564408073845</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="V32" t="n">
-        <v>1049.564408073845</v>
+        <v>864.3967081431416</v>
       </c>
       <c r="W32" t="n">
-        <v>690.952868747725</v>
+        <v>864.3967081431416</v>
       </c>
       <c r="X32" t="n">
-        <v>690.952868747725</v>
+        <v>864.3967081431416</v>
       </c>
       <c r="Y32" t="n">
-        <v>690.952868747725</v>
+        <v>864.3967081431416</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>179.0562643545365</v>
+        <v>64.93801191325804</v>
       </c>
       <c r="C33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="D33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="E33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="F33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="G33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="H33" t="n">
-        <v>28.40203391462872</v>
+        <v>36.11748881216885</v>
       </c>
       <c r="I33" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J33" t="n">
-        <v>58.85704598873465</v>
+        <v>58.85704598873467</v>
       </c>
       <c r="K33" t="n">
         <v>161.7101484975364</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1184894326827</v>
+        <v>330.1184894326828</v>
       </c>
       <c r="M33" t="n">
         <v>539.2250443076985</v>
@@ -6800,31 +6800,31 @@
         <v>1094.021084972318</v>
       </c>
       <c r="Q33" t="n">
-        <v>1369.890960533467</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="R33" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S33" t="n">
-        <v>1307.652556102448</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="T33" t="n">
-        <v>1135.547264475142</v>
+        <v>1247.996404104131</v>
       </c>
       <c r="U33" t="n">
-        <v>925.5637487953577</v>
+        <v>1038.012888424347</v>
       </c>
       <c r="V33" t="n">
-        <v>703.0237471664248</v>
+        <v>815.4728867954136</v>
       </c>
       <c r="W33" t="n">
-        <v>472.9065012997116</v>
+        <v>585.3556409287005</v>
       </c>
       <c r="X33" t="n">
-        <v>283.5994236497233</v>
+        <v>396.0485632787122</v>
       </c>
       <c r="Y33" t="n">
-        <v>179.0562643545365</v>
+        <v>216.7343463542194</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>351.3281822460721</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="C34" t="n">
-        <v>351.3281822460721</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="D34" t="n">
-        <v>195.6950691485868</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="E34" t="n">
-        <v>195.6950691485868</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="F34" t="n">
-        <v>195.6950691485868</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="G34" t="n">
-        <v>28.45572377344905</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="H34" t="n">
-        <v>28.45572377344905</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I34" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="J34" t="n">
-        <v>28.40203391462872</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="K34" t="n">
-        <v>225.7817318720666</v>
+        <v>95.62328616137967</v>
       </c>
       <c r="L34" t="n">
-        <v>537.7667518776309</v>
+        <v>407.6083061669439</v>
       </c>
       <c r="M34" t="n">
-        <v>749.7947607197123</v>
+        <v>749.7947607197129</v>
       </c>
       <c r="N34" t="n">
         <v>1085.172439251227</v>
       </c>
       <c r="O34" t="n">
-        <v>1388.44749773776</v>
+        <v>1388.447497737761</v>
       </c>
       <c r="P34" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="Q34" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="R34" t="n">
-        <v>1420.101695731436</v>
+        <v>1420.101695731437</v>
       </c>
       <c r="S34" t="n">
-        <v>1420.101695731436</v>
+        <v>1240.935574009581</v>
       </c>
       <c r="T34" t="n">
-        <v>1420.101695731436</v>
+        <v>1009.552094968232</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.718251711087</v>
+        <v>724.1686509478825</v>
       </c>
       <c r="V34" t="n">
-        <v>868.7389065319113</v>
+        <v>458.1893057687067</v>
       </c>
       <c r="W34" t="n">
-        <v>585.408504463089</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="X34" t="n">
-        <v>351.3281822460721</v>
+        <v>174.8589036998843</v>
       </c>
       <c r="Y34" t="n">
-        <v>351.3281822460721</v>
+        <v>174.8589036998843</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>702.8786170791959</v>
+        <v>477.3546904559115</v>
       </c>
       <c r="C35" t="n">
-        <v>702.8786170791959</v>
+        <v>477.3546904559115</v>
       </c>
       <c r="D35" t="n">
-        <v>702.8786170791959</v>
+        <v>477.3546904559115</v>
       </c>
       <c r="E35" t="n">
-        <v>702.8786170791959</v>
+        <v>329.318162289066</v>
       </c>
       <c r="F35" t="n">
-        <v>702.8786170791959</v>
+        <v>329.318162289066</v>
       </c>
       <c r="G35" t="n">
-        <v>344.2670777530755</v>
+        <v>329.318162289066</v>
       </c>
       <c r="H35" t="n">
-        <v>43.35094937863812</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="I35" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="J35" t="n">
-        <v>100.0727921248346</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K35" t="n">
-        <v>240.4687168143664</v>
+        <v>240.4687168143665</v>
       </c>
       <c r="L35" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562735</v>
       </c>
       <c r="M35" t="n">
-        <v>679.7044080739727</v>
+        <v>679.7044080739729</v>
       </c>
       <c r="N35" t="n">
-        <v>927.680231841808</v>
+        <v>927.6802318418082</v>
       </c>
       <c r="O35" t="n">
         <v>1153.168850648442</v>
@@ -6961,28 +6961,28 @@
         <v>1419.560928496659</v>
       </c>
       <c r="R35" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S35" t="n">
-        <v>1420.101695731437</v>
+        <v>1305.136168151662</v>
       </c>
       <c r="T35" t="n">
-        <v>1420.101695731437</v>
+        <v>1091.537989859849</v>
       </c>
       <c r="U35" t="n">
-        <v>1420.101695731437</v>
+        <v>835.9662297820319</v>
       </c>
       <c r="V35" t="n">
-        <v>1420.101695731437</v>
+        <v>835.9662297820319</v>
       </c>
       <c r="W35" t="n">
-        <v>1420.101695731437</v>
+        <v>477.3546904559115</v>
       </c>
       <c r="X35" t="n">
-        <v>1061.490156405316</v>
+        <v>477.3546904559115</v>
       </c>
       <c r="Y35" t="n">
-        <v>702.8786170791959</v>
+        <v>477.3546904559115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.318243023095</v>
+        <v>426.717862034003</v>
       </c>
       <c r="C36" t="n">
-        <v>361.6640125831872</v>
+        <v>426.717862034003</v>
       </c>
       <c r="D36" t="n">
-        <v>231.5750452046675</v>
+        <v>426.717862034003</v>
       </c>
       <c r="E36" t="n">
-        <v>231.5750452046675</v>
+        <v>348.2913964239956</v>
       </c>
       <c r="F36" t="n">
-        <v>231.5750452046675</v>
+        <v>223.8595903071274</v>
       </c>
       <c r="G36" t="n">
-        <v>112.7255674284613</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="H36" t="n">
-        <v>36.11748881216885</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="I36" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="J36" t="n">
-        <v>58.85704598873467</v>
+        <v>253.592040968462</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7101484975364</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1184894326828</v>
+        <v>594.8530404122366</v>
       </c>
       <c r="M36" t="n">
-        <v>539.2250443076985</v>
+        <v>803.9595952872522</v>
       </c>
       <c r="N36" t="n">
-        <v>763.2316466695182</v>
+        <v>1027.966197649072</v>
       </c>
       <c r="O36" t="n">
-        <v>953.7110577094163</v>
+        <v>1218.44560868897</v>
       </c>
       <c r="P36" t="n">
-        <v>1094.021084972318</v>
+        <v>1358.755635951872</v>
       </c>
       <c r="Q36" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R36" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S36" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="T36" t="n">
-        <v>1247.996404104131</v>
+        <v>1247.99640410413</v>
       </c>
       <c r="U36" t="n">
-        <v>1038.012888424347</v>
+        <v>1247.99640410413</v>
       </c>
       <c r="V36" t="n">
-        <v>1038.012888424347</v>
+        <v>1025.456402475197</v>
       </c>
       <c r="W36" t="n">
-        <v>807.8956425576334</v>
+        <v>795.339156608484</v>
       </c>
       <c r="X36" t="n">
-        <v>618.5885649076452</v>
+        <v>606.0320789584957</v>
       </c>
       <c r="Y36" t="n">
-        <v>618.5885649076452</v>
+        <v>426.717862034003</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="C37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="D37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="E37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="F37" t="n">
-        <v>444.6776216917762</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="G37" t="n">
-        <v>277.4382763166384</v>
+        <v>189.3565394039491</v>
       </c>
       <c r="H37" t="n">
         <v>130.9814065313828</v>
       </c>
       <c r="I37" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="J37" t="n">
-        <v>28.40203391462874</v>
+        <v>28.40203391462873</v>
       </c>
       <c r="K37" t="n">
-        <v>60.92665912938522</v>
+        <v>60.92665912938521</v>
       </c>
       <c r="L37" t="n">
-        <v>121.9857500741729</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M37" t="n">
-        <v>454.5912891394218</v>
+        <v>715.0981336877185</v>
       </c>
       <c r="N37" t="n">
-        <v>789.9689676709363</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O37" t="n">
-        <v>1093.24402615747</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P37" t="n">
-        <v>1333.402360533351</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q37" t="n">
-        <v>1420.101695731437</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="R37" t="n">
-        <v>1384.749824719677</v>
+        <v>1341.825691515932</v>
       </c>
       <c r="S37" t="n">
-        <v>1384.749824719677</v>
+        <v>1156.693209909607</v>
       </c>
       <c r="T37" t="n">
-        <v>1153.366345678328</v>
+        <v>925.3097308682583</v>
       </c>
       <c r="U37" t="n">
-        <v>867.9829016579789</v>
+        <v>639.9262868479092</v>
       </c>
       <c r="V37" t="n">
-        <v>602.0035564788031</v>
+        <v>639.9262868479092</v>
       </c>
       <c r="W37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="X37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
       <c r="Y37" t="n">
-        <v>602.0035564788031</v>
+        <v>356.5958847790868</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1420.101695731437</v>
+        <v>745.6251125668697</v>
       </c>
       <c r="C38" t="n">
-        <v>1420.101695731437</v>
+        <v>745.6251125668697</v>
       </c>
       <c r="D38" t="n">
-        <v>1420.101695731437</v>
+        <v>745.6251125668697</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.490156405316</v>
+        <v>387.0135732407492</v>
       </c>
       <c r="F38" t="n">
-        <v>702.8786170791959</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="G38" t="n">
-        <v>380.4449520702861</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="H38" t="n">
-        <v>79.52882369584876</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I38" t="n">
         <v>28.40203391462874</v>
@@ -7216,10 +7216,10 @@
         <v>1420.101695731437</v>
       </c>
       <c r="X38" t="n">
-        <v>1420.101695731437</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="Y38" t="n">
-        <v>1420.101695731437</v>
+        <v>745.6251125668697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>616.0249396839918</v>
+        <v>510.1851164662168</v>
       </c>
       <c r="C39" t="n">
-        <v>616.0249396839918</v>
+        <v>359.530886026309</v>
       </c>
       <c r="D39" t="n">
-        <v>492.453342210648</v>
+        <v>229.4419186477894</v>
       </c>
       <c r="E39" t="n">
-        <v>356.0068513215357</v>
+        <v>229.4419186477894</v>
       </c>
       <c r="F39" t="n">
-        <v>231.5750452046675</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="G39" t="n">
-        <v>112.7255674284613</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="H39" t="n">
-        <v>36.11748881216885</v>
+        <v>28.40203391462874</v>
       </c>
       <c r="I39" t="n">
         <v>28.40203391462874</v>
       </c>
       <c r="J39" t="n">
-        <v>253.592040968462</v>
+        <v>74.96952978356006</v>
       </c>
       <c r="K39" t="n">
         <v>426.4446994770907</v>
@@ -7280,25 +7280,25 @@
         <v>1420.101695731437</v>
       </c>
       <c r="S39" t="n">
-        <v>1420.101695731437</v>
+        <v>1307.652556102449</v>
       </c>
       <c r="T39" t="n">
-        <v>1247.996404104131</v>
+        <v>1172.825879641647</v>
       </c>
       <c r="U39" t="n">
-        <v>1247.996404104131</v>
+        <v>962.8423639618629</v>
       </c>
       <c r="V39" t="n">
-        <v>1025.456402475198</v>
+        <v>740.30236233293</v>
       </c>
       <c r="W39" t="n">
-        <v>795.3391566084845</v>
+        <v>510.1851164662168</v>
       </c>
       <c r="X39" t="n">
-        <v>795.3391566084845</v>
+        <v>510.1851164662168</v>
       </c>
       <c r="Y39" t="n">
-        <v>616.0249396839918</v>
+        <v>510.1851164662168</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.7915667775747</v>
+        <v>414.0418454039085</v>
       </c>
       <c r="C40" t="n">
-        <v>200.7915667775747</v>
+        <v>414.0418454039085</v>
       </c>
       <c r="D40" t="n">
-        <v>200.7915667775747</v>
+        <v>414.0418454039085</v>
       </c>
       <c r="E40" t="n">
-        <v>200.7915667775747</v>
+        <v>414.0418454039085</v>
       </c>
       <c r="F40" t="n">
-        <v>200.7915667775747</v>
+        <v>414.0418454039085</v>
       </c>
       <c r="G40" t="n">
-        <v>33.55222140243697</v>
+        <v>246.8025000287707</v>
       </c>
       <c r="H40" t="n">
-        <v>28.40203391462874</v>
+        <v>130.9814065313828</v>
       </c>
       <c r="I40" t="n">
         <v>28.40203391462874</v>
@@ -7335,19 +7335,19 @@
         <v>28.40203391462874</v>
       </c>
       <c r="K40" t="n">
-        <v>225.7817318720666</v>
+        <v>60.92665912938522</v>
       </c>
       <c r="L40" t="n">
-        <v>537.7667518776309</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M40" t="n">
-        <v>879.9532064303999</v>
+        <v>715.0981336877185</v>
       </c>
       <c r="N40" t="n">
-        <v>1215.330884961914</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O40" t="n">
-        <v>1388.447497737761</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P40" t="n">
         <v>1420.101695731437</v>
@@ -7356,28 +7356,28 @@
         <v>1420.101695731437</v>
       </c>
       <c r="R40" t="n">
-        <v>1420.101695731437</v>
+        <v>1341.825691515932</v>
       </c>
       <c r="S40" t="n">
-        <v>1234.969214125112</v>
+        <v>1341.825691515932</v>
       </c>
       <c r="T40" t="n">
-        <v>1003.585735083763</v>
+        <v>1341.825691515932</v>
       </c>
       <c r="U40" t="n">
-        <v>718.202291063414</v>
+        <v>1056.442247495583</v>
       </c>
       <c r="V40" t="n">
-        <v>718.202291063414</v>
+        <v>1056.442247495583</v>
       </c>
       <c r="W40" t="n">
-        <v>434.8718889945916</v>
+        <v>1056.442247495583</v>
       </c>
       <c r="X40" t="n">
-        <v>200.7915667775747</v>
+        <v>822.3619252785664</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.7915667775747</v>
+        <v>599.2498640952098</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="C41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="D41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="E41" t="n">
-        <v>702.8786170791957</v>
+        <v>592.3202180356855</v>
       </c>
       <c r="F41" t="n">
-        <v>344.2670777530754</v>
+        <v>329.318162289066</v>
       </c>
       <c r="G41" t="n">
         <v>329.318162289066</v>
@@ -7411,16 +7411,16 @@
         <v>28.40203391462872</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0727921248348</v>
+        <v>100.0727921248347</v>
       </c>
       <c r="K41" t="n">
         <v>240.4687168143665</v>
       </c>
       <c r="L41" t="n">
-        <v>438.6284212562734</v>
+        <v>438.6284212562735</v>
       </c>
       <c r="M41" t="n">
-        <v>679.7044080739724</v>
+        <v>679.7044080739726</v>
       </c>
       <c r="N41" t="n">
         <v>927.6802318418079</v>
@@ -7432,7 +7432,7 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1419.560928496659</v>
+        <v>1419.560928496658</v>
       </c>
       <c r="R41" t="n">
         <v>1420.101695731436</v>
@@ -7441,22 +7441,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T41" t="n">
-        <v>1420.101695731436</v>
+        <v>1206.503517439623</v>
       </c>
       <c r="U41" t="n">
-        <v>1420.101695731436</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="V41" t="n">
-        <v>1420.101695731436</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="W41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="X41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
       <c r="Y41" t="n">
-        <v>1061.490156405316</v>
+        <v>950.9317573618057</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64.93801191325736</v>
+        <v>648.890382819485</v>
       </c>
       <c r="C42" t="n">
-        <v>28.40203391462872</v>
+        <v>538.2187760753352</v>
       </c>
       <c r="D42" t="n">
-        <v>28.40203391462872</v>
+        <v>408.1298086968155</v>
       </c>
       <c r="E42" t="n">
-        <v>28.40203391462872</v>
+        <v>271.6833178077032</v>
       </c>
       <c r="F42" t="n">
-        <v>28.40203391462872</v>
+        <v>147.251511690835</v>
       </c>
       <c r="G42" t="n">
         <v>28.40203391462872</v>
@@ -7490,25 +7490,25 @@
         <v>28.40203391462872</v>
       </c>
       <c r="J42" t="n">
-        <v>253.592040968462</v>
+        <v>58.85704598873465</v>
       </c>
       <c r="K42" t="n">
-        <v>376.2339642791211</v>
+        <v>161.7101484975364</v>
       </c>
       <c r="L42" t="n">
-        <v>544.6423052142675</v>
+        <v>330.1184894326827</v>
       </c>
       <c r="M42" t="n">
-        <v>753.7488600892832</v>
+        <v>539.2250443076985</v>
       </c>
       <c r="N42" t="n">
-        <v>977.755462451103</v>
+        <v>763.2316466695182</v>
       </c>
       <c r="O42" t="n">
-        <v>1168.234873491001</v>
+        <v>953.7110577094163</v>
       </c>
       <c r="P42" t="n">
-        <v>1308.544900753903</v>
+        <v>1094.021084972318</v>
       </c>
       <c r="Q42" t="n">
         <v>1369.890960533467</v>
@@ -7520,22 +7520,22 @@
         <v>1420.101695731436</v>
       </c>
       <c r="T42" t="n">
-        <v>1247.99640410413</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="U42" t="n">
-        <v>1038.012888424346</v>
+        <v>1210.118180051652</v>
       </c>
       <c r="V42" t="n">
-        <v>815.4728867954129</v>
+        <v>1210.118180051652</v>
       </c>
       <c r="W42" t="n">
-        <v>585.3556409286998</v>
+        <v>980.0009341849391</v>
       </c>
       <c r="X42" t="n">
-        <v>396.0485632787115</v>
+        <v>980.0009341849391</v>
       </c>
       <c r="Y42" t="n">
-        <v>216.7343463542187</v>
+        <v>800.6867172604464</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1083.400599651097</v>
+        <v>355.9330866356665</v>
       </c>
       <c r="C43" t="n">
-        <v>913.1954817170858</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="D43" t="n">
-        <v>757.5623686196006</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="E43" t="n">
-        <v>602.0035564788031</v>
+        <v>185.7279687016558</v>
       </c>
       <c r="F43" t="n">
-        <v>444.6776216917762</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="G43" t="n">
-        <v>277.4382763166384</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9814065313828</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="I43" t="n">
         <v>28.40203391462872</v>
       </c>
       <c r="J43" t="n">
-        <v>68.9405601984883</v>
+        <v>28.40203391462872</v>
       </c>
       <c r="K43" t="n">
-        <v>101.4651854132448</v>
+        <v>60.92665912938521</v>
       </c>
       <c r="L43" t="n">
-        <v>413.450205418809</v>
+        <v>121.9857500741729</v>
       </c>
       <c r="M43" t="n">
-        <v>755.6366599715781</v>
+        <v>464.1722046269419</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.014338503093</v>
+        <v>799.5498831584564</v>
       </c>
       <c r="O43" t="n">
-        <v>1388.44749773776</v>
+        <v>1102.82494164499</v>
       </c>
       <c r="P43" t="n">
-        <v>1420.101695731436</v>
+        <v>1342.983276020871</v>
       </c>
       <c r="Q43" t="n">
         <v>1420.101695731436</v>
@@ -7596,25 +7596,25 @@
         <v>1420.101695731436</v>
       </c>
       <c r="S43" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T43" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="U43" t="n">
-        <v>1420.101695731436</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="V43" t="n">
-        <v>1420.101695731436</v>
+        <v>968.9898689459357</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.101695731436</v>
+        <v>685.6594668771133</v>
       </c>
       <c r="X43" t="n">
-        <v>1420.101695731436</v>
+        <v>541.1411053269678</v>
       </c>
       <c r="Y43" t="n">
-        <v>1268.608618342398</v>
+        <v>541.1411053269678</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.2670777530754</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="C44" t="n">
-        <v>344.2670777530754</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="D44" t="n">
-        <v>344.2670777530754</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="E44" t="n">
-        <v>28.40203391462872</v>
+        <v>745.6251125668693</v>
       </c>
       <c r="F44" t="n">
-        <v>28.40203391462872</v>
+        <v>387.013573240749</v>
       </c>
       <c r="G44" t="n">
         <v>28.40203391462872</v>
@@ -7648,19 +7648,19 @@
         <v>28.40203391462872</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0727921248347</v>
+        <v>100.0727921248348</v>
       </c>
       <c r="K44" t="n">
         <v>240.4687168143665</v>
       </c>
       <c r="L44" t="n">
-        <v>438.6284212562735</v>
+        <v>438.6284212562734</v>
       </c>
       <c r="M44" t="n">
-        <v>679.7044080739726</v>
+        <v>679.7044080739724</v>
       </c>
       <c r="N44" t="n">
-        <v>927.6802318418079</v>
+        <v>927.6802318418078</v>
       </c>
       <c r="O44" t="n">
         <v>1153.168850648442</v>
@@ -7669,7 +7669,7 @@
         <v>1323.192519378011</v>
       </c>
       <c r="Q44" t="n">
-        <v>1419.560928496658</v>
+        <v>1419.560928496659</v>
       </c>
       <c r="R44" t="n">
         <v>1420.101695731436</v>
@@ -7690,10 +7690,10 @@
         <v>1420.101695731436</v>
       </c>
       <c r="X44" t="n">
-        <v>1061.490156405316</v>
+        <v>1104.23665189299</v>
       </c>
       <c r="Y44" t="n">
-        <v>702.8786170791957</v>
+        <v>1104.23665189299</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>388.8396379815251</v>
+        <v>385.7533103493486</v>
       </c>
       <c r="C45" t="n">
-        <v>238.1854075416173</v>
+        <v>235.0990799094408</v>
       </c>
       <c r="D45" t="n">
-        <v>164.848524803741</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="E45" t="n">
-        <v>28.40203391462872</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="F45" t="n">
-        <v>28.40203391462872</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="G45" t="n">
-        <v>28.40203391462872</v>
+        <v>105.0101125309211</v>
       </c>
       <c r="H45" t="n">
         <v>28.40203391462872</v>
@@ -7730,22 +7730,22 @@
         <v>253.592040968462</v>
       </c>
       <c r="K45" t="n">
-        <v>376.2339642791211</v>
+        <v>356.4451434772637</v>
       </c>
       <c r="L45" t="n">
-        <v>544.6423052142675</v>
+        <v>524.8534844124101</v>
       </c>
       <c r="M45" t="n">
-        <v>753.7488600892832</v>
+        <v>733.9600392874258</v>
       </c>
       <c r="N45" t="n">
-        <v>977.755462451103</v>
+        <v>957.9666416492456</v>
       </c>
       <c r="O45" t="n">
-        <v>1168.234873491001</v>
+        <v>1148.446052689144</v>
       </c>
       <c r="P45" t="n">
-        <v>1308.544900753903</v>
+        <v>1288.756079952046</v>
       </c>
       <c r="Q45" t="n">
         <v>1369.890960533467</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.4241838620491</v>
+        <v>532.9942723721121</v>
       </c>
       <c r="C46" t="n">
-        <v>499.4241838620491</v>
+        <v>532.9942723721121</v>
       </c>
       <c r="D46" t="n">
-        <v>499.4241838620491</v>
+        <v>377.3611592746268</v>
       </c>
       <c r="E46" t="n">
-        <v>499.4241838620491</v>
+        <v>221.8023471338293</v>
       </c>
       <c r="F46" t="n">
-        <v>342.0982490750221</v>
+        <v>64.47641234680225</v>
       </c>
       <c r="G46" t="n">
-        <v>174.8589036998843</v>
+        <v>64.47641234680225</v>
       </c>
       <c r="H46" t="n">
-        <v>28.40203391462872</v>
+        <v>64.47641234680225</v>
       </c>
       <c r="I46" t="n">
         <v>28.40203391462872</v>
@@ -7812,46 +7812,46 @@
         <v>60.92665912938521</v>
       </c>
       <c r="L46" t="n">
-        <v>121.9857500741729</v>
+        <v>372.9116791349495</v>
       </c>
       <c r="M46" t="n">
-        <v>454.5912891394211</v>
+        <v>715.0981336877185</v>
       </c>
       <c r="N46" t="n">
-        <v>789.9689676709356</v>
+        <v>1050.475812219233</v>
       </c>
       <c r="O46" t="n">
-        <v>1093.244026157469</v>
+        <v>1353.750870705766</v>
       </c>
       <c r="P46" t="n">
-        <v>1333.40236053335</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="Q46" t="n">
         <v>1420.101695731436</v>
       </c>
       <c r="R46" t="n">
-        <v>1341.825691515932</v>
+        <v>1420.101695731436</v>
       </c>
       <c r="S46" t="n">
-        <v>1341.825691515932</v>
+        <v>1234.969214125111</v>
       </c>
       <c r="T46" t="n">
-        <v>1110.442212474583</v>
+        <v>1003.585735083762</v>
       </c>
       <c r="U46" t="n">
-        <v>825.0587684542338</v>
+        <v>718.2022910634133</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7545859308715</v>
+        <v>718.2022910634133</v>
       </c>
       <c r="W46" t="n">
-        <v>499.4241838620491</v>
+        <v>718.2022910634133</v>
       </c>
       <c r="X46" t="n">
-        <v>499.4241838620491</v>
+        <v>718.2022910634133</v>
       </c>
       <c r="Y46" t="n">
-        <v>499.4241838620491</v>
+        <v>718.2022910634133</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>16.2752361563892</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>251.1334011966957</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>138.6525087351951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>128.7561286178896</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.29589056427804</v>
+        <v>20.29589056427803</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>11.5245301161155</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
@@ -8862,13 +8862,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>248.4440911955584</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.35992901061974</v>
+        <v>92.25732265765546</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>87.93459439381257</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>128.7561286178896</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>267.4086373530841</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427801</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,19 +9093,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>272.823800657963</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>149.7886479467315</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061971</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>54.11051368578278</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>213.2981236673012</v>
+        <v>19.98870788066466</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.29589056427801</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.52453011611549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>278.4750710187352</v>
+        <v>61.32909676210788</v>
       </c>
       <c r="N19" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>122.8718220452334</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.35992901061971</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>16.27523615638928</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>251.1334011966959</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>19.98870788066387</v>
       </c>
       <c r="R21" t="n">
-        <v>20.29589056427801</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>11.52453011611549</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>36.94938729970333</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N22" t="n">
-        <v>268.0356382773604</v>
+        <v>92.72213549401684</v>
       </c>
       <c r="O22" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.35992901061971</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.93459439381277</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>54.06874457368971</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>128.7561286178897</v>
       </c>
       <c r="O24" t="n">
-        <v>162.6219784380127</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>278.4750710187352</v>
@@ -9810,13 +9810,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>122.8718220452343</v>
+        <v>78.14703162148224</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.35992901061971</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>216.6907230117018</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>216.6907230117026</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10035,7 +10035,7 @@
         <v>11.52453011611549</v>
       </c>
       <c r="K28" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>253.4605344048249</v>
@@ -10047,10 +10047,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
-        <v>122.8718220452336</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>35.04709801211558</v>
       </c>
       <c r="Q28" t="n">
         <v>14.35992901061971</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>162.6219784380127</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>54.0687445736898</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>267.4086373530851</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427801</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>11.52453011611549</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>253.4605344048249</v>
+        <v>200.9325463582678</v>
       </c>
       <c r="M31" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N31" t="n">
-        <v>51.77412914668496</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>101.9350150692923</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>216.6907230117019</v>
+        <v>267.4086373530851</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>20.29589056427801</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>11.52453011611549</v>
       </c>
       <c r="K34" t="n">
-        <v>166.520275497658</v>
+        <v>35.04709801211561</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>147.0018935331922</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N34" t="n">
         <v>268.0356382773604</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>70.70662222204697</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>267.4086373530851</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>20.29589056427801</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>268.7973786070988</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10761,10 +10761,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>35.04709801211511</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061971</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>16.27523615638928</v>
       </c>
       <c r="K39" t="n">
-        <v>70.70662222204741</v>
+        <v>251.1334011966959</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>11.52453011611549</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
@@ -10995,10 +10995,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>122.8718220452343</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.04709801211558</v>
       </c>
       <c r="Q40" t="n">
         <v>14.35992901061971</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>19.98870788066397</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>216.6907230117019</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>11.52453011611549</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11232,13 +11232,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>248.4440911955585</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.35992901061971</v>
+        <v>92.25732265765521</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>19.98870788066397</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>19.98870788066409</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>268.7973786070981</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -11472,10 +11472,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>35.04709801211489</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>14.35992901061971</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.46437432142397</v>
+        <v>41.46437432142386</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>250.2826904219428</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G11" t="n">
-        <v>406.7916305480175</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H11" t="n">
         <v>297.9069670906929</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61552188340787</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.4621965088955</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>54.58265128133354</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>30.5326550834148</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.50037805574595</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.5934219879973</v>
+        <v>8.355957096198438</v>
       </c>
     </row>
     <row r="13">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.09643297323292</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>101.5535788905865</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.49324417334927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5296095801456</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>248.9668923803602</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>41.46437432142392</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>79.34836127580081</v>
+        <v>43.5322657017619</v>
       </c>
       <c r="F14" t="n">
-        <v>57.70007015246307</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>51.76620661515852</v>
+        <v>51.76620661515847</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.4621965088955</v>
@@ -23554,7 +23554,7 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>139.795220107431</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>102.5934219879974</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>117.5788491253252</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.7635778759594</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23667,13 +23667,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.992301087403</v>
       </c>
       <c r="I16" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>156.9582220652584</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1722057265412</v>
+        <v>26.56129356263972</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23752,7 +23752,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>261.511655909042</v>
       </c>
       <c r="X17" t="n">
-        <v>30.53265508341474</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.5003780557459</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.3246482326984</v>
+        <v>110.077377329922</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.48196436858024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5669519213864</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>228.7586742618277</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>170.1471583664177</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,22 +23974,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>26.56129356263972</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>136.4668181179665</v>
+        <v>43.5322657017619</v>
       </c>
       <c r="F20" t="n">
-        <v>57.70007015246279</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>51.76620661515824</v>
+        <v>51.76620661515847</v>
       </c>
       <c r="H20" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0160424770386</v>
+        <v>208.4692610476823</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>102.593421987997</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T21" t="n">
         <v>170.3842387110332</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>148.3931930228535</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>165.5669519213864</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T22" t="n">
-        <v>188.6209393006262</v>
+        <v>33.11253843058404</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>34.21832254923947</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>26.56129356263972</v>
       </c>
       <c r="E23" t="n">
-        <v>43.53226570176167</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.7916305480175</v>
+        <v>375.6525215093056</v>
       </c>
       <c r="H23" t="n">
-        <v>297.9069670906929</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>50.61552188340782</v>
@@ -24265,10 +24265,10 @@
         <v>253.0160424770386</v>
       </c>
       <c r="V23" t="n">
-        <v>25.97934780345469</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>12.2636207485362</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24290,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>71.38090891056686</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>13.31116704263239</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T24" t="n">
         <v>170.3842387110332</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,22 +24369,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5669519213864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>77.49324417334925</v>
       </c>
       <c r="S25" t="n">
-        <v>75.88024244367297</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>129.72682684971</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>41.46437432142369</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>34.21832254923947</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>250.2826904219428</v>
+        <v>43.53226570176167</v>
       </c>
       <c r="F26" t="n">
-        <v>57.70007015246296</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>51.76620661515841</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H26" t="n">
         <v>297.9069670906929</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T26" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0160424770386</v>
@@ -24505,13 +24505,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>341.897126980846</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H27" t="n">
         <v>75.84199783012947</v>
       </c>
       <c r="I27" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>91.75547759867725</v>
       </c>
       <c r="V27" t="n">
-        <v>151.2188520062015</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24621,7 +24621,7 @@
         <v>144.992301087403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.96121826215729</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.5491849537078</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>79.25021297303402</v>
       </c>
       <c r="C29" t="n">
         <v>34.21832254923947</v>
       </c>
       <c r="D29" t="n">
-        <v>26.56129356263972</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>43.53226570176167</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>403.6506650457063</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>406.7916305480175</v>
@@ -24700,7 +24700,7 @@
         <v>297.9069670906929</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>211.4621965088955</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
@@ -24770,13 +24770,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>66.28178356588211</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>75.84199783012947</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3842387110332</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>105.9110724801603</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24846,13 +24846,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.44201162784356</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>77.49324417334925</v>
       </c>
       <c r="S31" t="n">
-        <v>74.33248866326412</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5296095801456</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>41.46437432142369</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>264.0028378749897</v>
       </c>
       <c r="E32" t="n">
-        <v>43.53226570176184</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>57.70007015246279</v>
       </c>
       <c r="G32" t="n">
         <v>406.7916305480175</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I32" t="n">
-        <v>47.62258642219456</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>113.8158723039764</v>
       </c>
       <c r="T32" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0160424770386</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>120.6153702654304</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
@@ -25016,7 +25016,7 @@
         <v>75.84199783012947</v>
       </c>
       <c r="I33" t="n">
-        <v>7.638300348564712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>111.3246482326984</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>74.02334705301294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,13 +25089,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H34" t="n">
-        <v>144.992301087403</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>101.5004259303544</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>77.49324417334925</v>
       </c>
       <c r="S34" t="n">
-        <v>183.2811567902616</v>
+        <v>5.906696285624008</v>
       </c>
       <c r="T34" t="n">
-        <v>229.0696442509355</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25162,19 +25162,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>252.0015267494439</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>51.76620661515824</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>35.81609557403853</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>113.8158723039764</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>12.26362074853631</v>
       </c>
       <c r="X35" t="n">
-        <v>30.53265508341451</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>37.50037805574567</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45.07075243084705</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>57.43982502631386</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8836805229861</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,13 +25323,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>87.20091954356241</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.49489187170679</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25405,13 +25405,13 @@
         <v>57.70007015246279</v>
       </c>
       <c r="G38" t="n">
-        <v>87.58230218919675</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>297.9069670906929</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.61552188340782</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>72.85168561621163</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>37.50037805574567</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6.452196206124185</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.6609829984442</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.638300348564712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.3246482326984</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>36.9058290148395</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8836805229861</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.8936154744729</v>
+        <v>30.32941852498897</v>
       </c>
       <c r="I40" t="n">
-        <v>101.5535788905865</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.49324417334925</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.2811567902616</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.0696442509355</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>43.53226570176184</v>
       </c>
       <c r="F41" t="n">
-        <v>57.70007015246296</v>
+        <v>152.3534588961688</v>
       </c>
       <c r="G41" t="n">
-        <v>391.9922042386482</v>
+        <v>406.7916305480175</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>113.8158723039764</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4621965088955</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0160424770386</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>12.26362074853637</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25709,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>112.9770699168664</v>
+        <v>39.5827974588004</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.6609829984442</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>75.84199783012947</v>
@@ -25760,19 +25760,19 @@
         <v>111.3246482326984</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.3842387110332</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>101.5535788905865</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>77.49324417334925</v>
       </c>
       <c r="S43" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>229.0696442509355</v>
@@ -25845,16 +25845,16 @@
         <v>282.5296095801456</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>88.66634106020265</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.90279395637521</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.46437432142386</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,13 +25873,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>85.85129623455867</v>
+        <v>43.53226570176184</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>57.70007015246296</v>
       </c>
       <c r="G44" t="n">
-        <v>406.7916305480175</v>
+        <v>51.76620661515841</v>
       </c>
       <c r="H44" t="n">
         <v>297.9069670906929</v>
@@ -25930,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>30.53265508341468</v>
+        <v>72.85168561621163</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.50037805574584</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>147.222906740697</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>56.18456379423696</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -25961,7 +25961,7 @@
         <v>117.6609829984442</v>
       </c>
       <c r="H45" t="n">
-        <v>75.84199783012947</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>7.638300348564712</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5669519213864</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.992301087403</v>
       </c>
       <c r="I46" t="n">
-        <v>101.5535788905865</v>
+        <v>65.8399442427347</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.49324417334925</v>
       </c>
       <c r="S46" t="n">
-        <v>183.2811567902616</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>221.4384110292553</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378918.2381588985</v>
+        <v>378918.2381588987</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378918.2381588985</v>
+        <v>378918.2381588988</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>378918.2381588987</v>
+        <v>378918.2381588985</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>378918.2381588987</v>
+        <v>378918.2381588988</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>378918.2381588987</v>
+        <v>378918.2381588988</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>378918.2381588987</v>
+        <v>378918.2381588988</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>378918.2381588988</v>
+        <v>378918.2381588987</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>378918.2381588988</v>
+        <v>378918.2381588987</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378918.2381588988</v>
+        <v>378918.2381588987</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378918.2381588987</v>
+        <v>378918.2381588988</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070945</v>
+        <v>575677.5082070946</v>
       </c>
       <c r="C2" t="n">
         <v>575677.5082070944</v>
@@ -26322,7 +26322,7 @@
         <v>575677.5082070944</v>
       </c>
       <c r="E2" t="n">
-        <v>300732.0682293107</v>
+        <v>300732.0682293109</v>
       </c>
       <c r="F2" t="n">
         <v>300732.0682293107</v>
@@ -26331,28 +26331,28 @@
         <v>300732.0682293107</v>
       </c>
       <c r="H2" t="n">
-        <v>300732.0682293109</v>
+        <v>300732.0682293107</v>
       </c>
       <c r="I2" t="n">
-        <v>300732.0682293107</v>
+        <v>300732.0682293106</v>
       </c>
       <c r="J2" t="n">
-        <v>300732.0682293107</v>
+        <v>300732.068229311</v>
       </c>
       <c r="K2" t="n">
         <v>300732.0682293108</v>
       </c>
       <c r="L2" t="n">
+        <v>300732.0682293109</v>
+      </c>
+      <c r="M2" t="n">
         <v>300732.0682293106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>300732.0682293107</v>
       </c>
       <c r="N2" t="n">
         <v>300732.0682293107</v>
       </c>
       <c r="O2" t="n">
-        <v>300732.0682293107</v>
+        <v>300732.0682293106</v>
       </c>
       <c r="P2" t="n">
         <v>300732.0682293106</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>553558.4915485295</v>
+        <v>553558.4915485296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>88473.75574576415</v>
+        <v>88473.75574576418</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407601.0986972392</v>
+        <v>407601.0986972393</v>
       </c>
       <c r="C4" t="n">
         <v>407601.0986972392</v>
       </c>
       <c r="D4" t="n">
-        <v>407601.0986972392</v>
+        <v>407601.0986972393</v>
       </c>
       <c r="E4" t="n">
-        <v>22106.76797087261</v>
+        <v>22106.76797087262</v>
       </c>
       <c r="F4" t="n">
         <v>22106.7679708726</v>
       </c>
       <c r="G4" t="n">
+        <v>22106.76797087262</v>
+      </c>
+      <c r="H4" t="n">
         <v>22106.76797087259</v>
       </c>
-      <c r="H4" t="n">
-        <v>22106.76797087263</v>
-      </c>
       <c r="I4" t="n">
+        <v>22106.76797087262</v>
+      </c>
+      <c r="J4" t="n">
         <v>22106.76797087266</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22106.7679708726</v>
       </c>
       <c r="K4" t="n">
         <v>22106.76797087262</v>
       </c>
       <c r="L4" t="n">
-        <v>22106.7679708726</v>
+        <v>22106.76797087263</v>
       </c>
       <c r="M4" t="n">
-        <v>22106.76797087262</v>
+        <v>22106.76797087261</v>
       </c>
       <c r="N4" t="n">
         <v>22106.76797087263</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="F5" t="n">
-        <v>33729.78034901012</v>
+        <v>33729.78034901013</v>
       </c>
       <c r="G5" t="n">
+        <v>33729.78034901014</v>
+      </c>
+      <c r="H5" t="n">
         <v>33729.78034901013</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33729.78034901014</v>
       </c>
       <c r="I5" t="n">
         <v>33729.78034901014</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134448.8095098553</v>
+        <v>134444.4799420689</v>
       </c>
       <c r="C6" t="n">
-        <v>134448.8095098552</v>
+        <v>134444.4799420687</v>
       </c>
       <c r="D6" t="n">
-        <v>134448.8095098552</v>
+        <v>134444.4799420687</v>
       </c>
       <c r="E6" t="n">
-        <v>-308662.9716391015</v>
+        <v>-309526.5057068185</v>
       </c>
       <c r="F6" t="n">
-        <v>244895.519909428</v>
+        <v>244031.9858417111</v>
       </c>
       <c r="G6" t="n">
-        <v>244895.519909428</v>
+        <v>244031.9858417109</v>
       </c>
       <c r="H6" t="n">
-        <v>244895.5199094281</v>
+        <v>244031.985841711</v>
       </c>
       <c r="I6" t="n">
-        <v>244895.5199094279</v>
+        <v>244031.9858417109</v>
       </c>
       <c r="J6" t="n">
-        <v>244895.519909428</v>
+        <v>244031.9858417112</v>
       </c>
       <c r="K6" t="n">
-        <v>244895.519909428</v>
+        <v>244031.9858417111</v>
       </c>
       <c r="L6" t="n">
-        <v>244895.5199094279</v>
+        <v>244031.9858417111</v>
       </c>
       <c r="M6" t="n">
-        <v>156421.7641636638</v>
+        <v>155558.2300959467</v>
       </c>
       <c r="N6" t="n">
-        <v>244895.5199094279</v>
+        <v>244031.985841711</v>
       </c>
       <c r="O6" t="n">
-        <v>244895.519909428</v>
+        <v>244031.9858417109</v>
       </c>
       <c r="P6" t="n">
-        <v>244895.5199094279</v>
+        <v>244031.9858417109</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="F3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537754</v>
       </c>
       <c r="G3" t="n">
         <v>557.0749804537754</v>
@@ -26798,31 +26798,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="F4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="G4" t="n">
+        <v>355.0254239328592</v>
+      </c>
+      <c r="H4" t="n">
         <v>355.025423932859</v>
-      </c>
-      <c r="H4" t="n">
-        <v>355.0254239328592</v>
       </c>
       <c r="I4" t="n">
         <v>355.0254239328592</v>
       </c>
       <c r="J4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="K4" t="n">
         <v>355.0254239328592</v>
       </c>
       <c r="L4" t="n">
-        <v>355.025423932859</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328592</v>
+        <v>355.0254239328591</v>
       </c>
       <c r="N4" t="n">
         <v>355.0254239328592</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.0749804537752</v>
+        <v>557.0749804537753</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>355.025423932859</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>355.0254239328589</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>355.0254239328588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.0254239328589</v>
+        <v>355.025423932859</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,28 +31752,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H11" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I11" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505196</v>
       </c>
       <c r="J11" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K11" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L11" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485795</v>
       </c>
       <c r="M11" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933828</v>
       </c>
       <c r="N11" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063046</v>
       </c>
       <c r="O11" t="n">
         <v>377.3301190469589</v>
@@ -31788,10 +31788,10 @@
         <v>140.6768291092642</v>
       </c>
       <c r="S11" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438355</v>
       </c>
       <c r="T11" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282014</v>
       </c>
       <c r="U11" t="n">
         <v>0.1791597927087517</v>
@@ -31837,43 +31837,43 @@
         <v>11.5724444052756</v>
       </c>
       <c r="I12" t="n">
-        <v>41.25508109964279</v>
+        <v>41.2550810996428</v>
       </c>
       <c r="J12" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K12" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449448</v>
       </c>
       <c r="M12" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N12" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O12" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P12" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R12" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229856</v>
       </c>
       <c r="S12" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T12" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047352</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855314</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H13" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717912</v>
       </c>
       <c r="I13" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870638</v>
       </c>
       <c r="J13" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949197</v>
       </c>
       <c r="K13" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L13" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M13" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N13" t="n">
         <v>153.7252974750558</v>
@@ -31937,22 +31937,22 @@
         <v>141.9901933786115</v>
       </c>
       <c r="P13" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852007</v>
       </c>
       <c r="R13" t="n">
         <v>45.16873530039953</v>
       </c>
       <c r="S13" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T13" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512694</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.239497408859396</v>
+        <v>2.239497408859397</v>
       </c>
       <c r="H14" t="n">
         <v>22.9352528384813</v>
       </c>
       <c r="I14" t="n">
-        <v>86.33822385505195</v>
+        <v>86.33822385505199</v>
       </c>
       <c r="J14" t="n">
-        <v>190.0745432051803</v>
+        <v>190.0745432051804</v>
       </c>
       <c r="K14" t="n">
-        <v>284.8724685221986</v>
+        <v>284.8724685221987</v>
       </c>
       <c r="L14" t="n">
-        <v>353.4094873485794</v>
+        <v>353.4094873485796</v>
       </c>
       <c r="M14" t="n">
-        <v>393.2361493933827</v>
+        <v>393.2361493933829</v>
       </c>
       <c r="N14" t="n">
-        <v>399.5991214063045</v>
+        <v>399.5991214063047</v>
       </c>
       <c r="O14" t="n">
-        <v>377.3301190469589</v>
+        <v>377.330119046959</v>
       </c>
       <c r="P14" t="n">
-        <v>322.0425267657425</v>
+        <v>322.0425267657426</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.8405258109653</v>
+        <v>241.8405258109654</v>
       </c>
       <c r="R14" t="n">
         <v>140.6768291092642</v>
       </c>
       <c r="S14" t="n">
-        <v>51.03254720438354</v>
+        <v>51.03254720438356</v>
       </c>
       <c r="T14" t="n">
-        <v>9.803399907282012</v>
+        <v>9.803399907282015</v>
       </c>
       <c r="U14" t="n">
         <v>0.1791597927087517</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.198236750410007</v>
+        <v>1.198236750410008</v>
       </c>
       <c r="H15" t="n">
         <v>11.5724444052756</v>
       </c>
       <c r="I15" t="n">
-        <v>41.25508109964279</v>
+        <v>41.25508109964281</v>
       </c>
       <c r="J15" t="n">
         <v>113.2070957920262</v>
       </c>
       <c r="K15" t="n">
-        <v>193.4889580694966</v>
+        <v>193.4889580694967</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1697821449447</v>
+        <v>260.1697821449449</v>
       </c>
       <c r="M15" t="n">
-        <v>303.6058643473074</v>
+        <v>303.6058643473075</v>
       </c>
       <c r="N15" t="n">
-        <v>311.641408169136</v>
+        <v>311.6414081691361</v>
       </c>
       <c r="O15" t="n">
-        <v>285.0910043837353</v>
+        <v>285.0910043837354</v>
       </c>
       <c r="P15" t="n">
-        <v>228.8106650848723</v>
+        <v>228.8106650848724</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.9538701049686</v>
+        <v>152.9538701049687</v>
       </c>
       <c r="R15" t="n">
-        <v>74.39578701229854</v>
+        <v>74.39578701229857</v>
       </c>
       <c r="S15" t="n">
-        <v>22.25672209643147</v>
+        <v>22.25672209643148</v>
       </c>
       <c r="T15" t="n">
-        <v>4.829734972047351</v>
+        <v>4.829734972047353</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07883136515855313</v>
+        <v>0.07883136515855316</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.004561440162545</v>
+        <v>1.004561440162546</v>
       </c>
       <c r="H16" t="n">
-        <v>8.93146444071791</v>
+        <v>8.931464440717914</v>
       </c>
       <c r="I16" t="n">
-        <v>30.20990221870637</v>
+        <v>30.20990221870639</v>
       </c>
       <c r="J16" t="n">
-        <v>71.02249381949196</v>
+        <v>71.02249381949198</v>
       </c>
       <c r="K16" t="n">
-        <v>116.7117745934302</v>
+        <v>116.7117745934303</v>
       </c>
       <c r="L16" t="n">
         <v>149.3508890219843</v>
       </c>
       <c r="M16" t="n">
-        <v>157.4695719338433</v>
+        <v>157.4695719338434</v>
       </c>
       <c r="N16" t="n">
-        <v>153.7252974750558</v>
+        <v>153.7252974750559</v>
       </c>
       <c r="O16" t="n">
         <v>141.9901933786115</v>
       </c>
       <c r="P16" t="n">
-        <v>121.4971399992954</v>
+        <v>121.4971399992955</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.11832204852006</v>
+        <v>84.11832204852008</v>
       </c>
       <c r="R16" t="n">
-        <v>45.16873530039953</v>
+        <v>45.16873530039955</v>
       </c>
       <c r="S16" t="n">
-        <v>17.50676618901453</v>
+        <v>17.50676618901454</v>
       </c>
       <c r="T16" t="n">
-        <v>4.292217062512693</v>
+        <v>4.292217062512695</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05479426037250253</v>
+        <v>0.05479426037250256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>241.8405258109654</v>
       </c>
       <c r="R41" t="n">
-        <v>140.6768291092642</v>
+        <v>140.6768291092645</v>
       </c>
       <c r="S41" t="n">
         <v>51.03254720438356</v>
@@ -34392,7 +34392,7 @@
         <v>241.8405258109654</v>
       </c>
       <c r="R44" t="n">
-        <v>140.6768291092645</v>
+        <v>140.6768291092642</v>
       </c>
       <c r="S44" t="n">
         <v>51.03254720438356</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283429</v>
       </c>
       <c r="K11" t="n">
         <v>141.8140653429613</v>
       </c>
       <c r="L11" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180878</v>
       </c>
       <c r="M11" t="n">
         <v>243.5110977956555</v>
       </c>
       <c r="N11" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685205</v>
       </c>
       <c r="O11" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P11" t="n">
         <v>171.7410795248173</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257315</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783069</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.76263845869282</v>
+        <v>47.03787461508205</v>
       </c>
       <c r="K12" t="n">
-        <v>103.8920227361633</v>
+        <v>355.025423932859</v>
       </c>
       <c r="L12" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M12" t="n">
-        <v>349.8712510331906</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N12" t="n">
-        <v>355.0254239328589</v>
+        <v>226.2692953149694</v>
       </c>
       <c r="O12" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948465</v>
       </c>
       <c r="P12" t="n">
         <v>141.7273002655577</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.96571694905465</v>
+        <v>61.96571694905468</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.94800634733289</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32.85315678258225</v>
+        <v>32.85315678258227</v>
       </c>
       <c r="L13" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917942</v>
       </c>
       <c r="M13" t="n">
         <v>345.6428833866353</v>
@@ -35582,13 +35582,13 @@
         <v>338.7653318500146</v>
       </c>
       <c r="O13" t="n">
-        <v>300.437534580472</v>
+        <v>306.3384429156903</v>
       </c>
       <c r="P13" t="n">
-        <v>31.97393736734949</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>77.89739364703574</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.39470526283424</v>
+        <v>72.39470526283432</v>
       </c>
       <c r="K14" t="n">
-        <v>141.8140653429613</v>
+        <v>141.8140653429614</v>
       </c>
       <c r="L14" t="n">
-        <v>200.1613176180877</v>
+        <v>200.1613176180879</v>
       </c>
       <c r="M14" t="n">
-        <v>243.5110977956555</v>
+        <v>243.5110977956556</v>
       </c>
       <c r="N14" t="n">
-        <v>250.4806300685204</v>
+        <v>250.4806300685206</v>
       </c>
       <c r="O14" t="n">
-        <v>227.7662816228625</v>
+        <v>227.7662816228626</v>
       </c>
       <c r="P14" t="n">
-        <v>171.7410795248173</v>
+        <v>171.7410795248174</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.34182739257312</v>
+        <v>97.34182739257321</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5462295300782785</v>
+        <v>0.5462295300783353</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>30.76263845869282</v>
+        <v>30.76263845869286</v>
       </c>
       <c r="K15" t="n">
-        <v>103.8920227361633</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L15" t="n">
-        <v>170.1094352880265</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M15" t="n">
-        <v>299.1533366918081</v>
+        <v>211.2187422979956</v>
       </c>
       <c r="N15" t="n">
-        <v>355.0254239328589</v>
+        <v>226.2692953149695</v>
       </c>
       <c r="O15" t="n">
-        <v>192.4034454948464</v>
+        <v>192.4034454948466</v>
       </c>
       <c r="P15" t="n">
-        <v>141.7273002655577</v>
+        <v>141.7273002655578</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.96571694905465</v>
+        <v>329.3743543021388</v>
       </c>
       <c r="R15" t="n">
-        <v>50.71791434138244</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.94800634733289</v>
+        <v>40.94800634733291</v>
       </c>
       <c r="K16" t="n">
-        <v>199.3734322802402</v>
+        <v>199.3734322802403</v>
       </c>
       <c r="L16" t="n">
         <v>315.1363838440043</v>
       </c>
       <c r="M16" t="n">
-        <v>339.991613025863</v>
+        <v>67.16781236790014</v>
       </c>
       <c r="N16" t="n">
-        <v>338.7653318500146</v>
+        <v>338.7653318500147</v>
       </c>
       <c r="O16" t="n">
-        <v>51.99344338491365</v>
+        <v>201.7820913316453</v>
       </c>
       <c r="P16" t="n">
-        <v>31.97393736734949</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.57508605867254</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>30.76263845869286</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K18" t="n">
-        <v>158.0025364219461</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L18" t="n">
         <v>170.1094352880266</v>
@@ -35980,13 +35980,13 @@
         <v>192.4034454948466</v>
       </c>
       <c r="P18" t="n">
-        <v>355.025423932859</v>
+        <v>161.7160081462224</v>
       </c>
       <c r="Q18" t="n">
         <v>61.96571694905471</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.71791434138247</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.94800634733291</v>
       </c>
       <c r="K19" t="n">
         <v>199.3734322802403</v>
       </c>
       <c r="L19" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917944</v>
       </c>
       <c r="M19" t="n">
-        <v>345.6428833866354</v>
+        <v>128.496909130008</v>
       </c>
       <c r="N19" t="n">
         <v>338.7653318500147</v>
       </c>
       <c r="O19" t="n">
-        <v>174.8652654301471</v>
+        <v>306.3384429156904</v>
       </c>
       <c r="P19" t="n">
-        <v>31.97393736734955</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>87.57508605867257</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.03787461508215</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K21" t="n">
-        <v>355.0254239328592</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L21" t="n">
         <v>170.1094352880266</v>
@@ -36220,10 +36220,10 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.96571694905471</v>
+        <v>81.95442482971858</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.71791434138247</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.94800634733291</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.8531567825823</v>
+        <v>199.3734322802403</v>
       </c>
       <c r="L22" t="n">
-        <v>98.62523673888278</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M22" t="n">
         <v>345.6428833866354</v>
       </c>
       <c r="N22" t="n">
-        <v>338.7653318500147</v>
+        <v>163.4518290666711</v>
       </c>
       <c r="O22" t="n">
-        <v>306.3384429156904</v>
+        <v>51.9934433849137</v>
       </c>
       <c r="P22" t="n">
         <v>242.5841761372536</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>87.57508605867257</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>227.7662816228626</v>
       </c>
       <c r="P23" t="n">
-        <v>171.7410795248183</v>
+        <v>171.7410795248174</v>
       </c>
       <c r="Q23" t="n">
         <v>97.34182739257321</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>30.76263845869286</v>
+        <v>118.6972328525056</v>
       </c>
       <c r="K24" t="n">
         <v>103.8920227361634</v>
       </c>
       <c r="L24" t="n">
-        <v>224.1781798617164</v>
+        <v>170.1094352880266</v>
       </c>
       <c r="M24" t="n">
         <v>211.2187422979956</v>
       </c>
       <c r="N24" t="n">
-        <v>226.2692953149695</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="O24" t="n">
-        <v>355.0254239328592</v>
+        <v>192.4034454948466</v>
       </c>
       <c r="P24" t="n">
         <v>141.7273002655578</v>
@@ -36521,7 +36521,7 @@
         <v>199.3734322802403</v>
       </c>
       <c r="L25" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917944</v>
       </c>
       <c r="M25" t="n">
         <v>345.6428833866354</v>
@@ -36530,13 +36530,13 @@
         <v>338.7653318500147</v>
       </c>
       <c r="O25" t="n">
-        <v>174.865265430148</v>
+        <v>130.1404750063959</v>
       </c>
       <c r="P25" t="n">
-        <v>31.97393736734955</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>87.57508605867257</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>227.7662816228626</v>
       </c>
       <c r="P26" t="n">
-        <v>171.7410795248174</v>
+        <v>171.7410795248183</v>
       </c>
       <c r="Q26" t="n">
         <v>97.34182739257321</v>
@@ -36676,7 +36676,7 @@
         <v>30.76263845869286</v>
       </c>
       <c r="K27" t="n">
-        <v>320.5827457478651</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L27" t="n">
         <v>170.1094352880266</v>
@@ -36694,7 +36694,7 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.96571694905471</v>
+        <v>278.6564399607573</v>
       </c>
       <c r="R27" t="n">
         <v>50.71791434138247</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>199.3734322802403</v>
+        <v>32.8531567825823</v>
       </c>
       <c r="L28" t="n">
         <v>315.1363838440043</v>
@@ -36767,10 +36767,10 @@
         <v>338.7653318500147</v>
       </c>
       <c r="O28" t="n">
-        <v>174.8652654301473</v>
+        <v>306.3384429156904</v>
       </c>
       <c r="P28" t="n">
-        <v>31.97393736734955</v>
+        <v>67.02103537946513</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.39470526283432</v>
+        <v>72.39470526283506</v>
       </c>
       <c r="K29" t="n">
         <v>141.8140653429614</v>
@@ -36925,16 +36925,16 @@
         <v>226.2692953149695</v>
       </c>
       <c r="O30" t="n">
-        <v>355.0254239328592</v>
+        <v>192.4034454948466</v>
       </c>
       <c r="P30" t="n">
-        <v>195.7960448392476</v>
+        <v>141.7273002655578</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.96571694905471</v>
+        <v>329.3743543021397</v>
       </c>
       <c r="R30" t="n">
-        <v>50.71791434138247</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.94800634733291</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>199.3734322802403</v>
+        <v>32.8531567825823</v>
       </c>
       <c r="L31" t="n">
-        <v>315.1363838440043</v>
+        <v>262.6083957974473</v>
       </c>
       <c r="M31" t="n">
         <v>345.6428833866354</v>
       </c>
       <c r="N31" t="n">
-        <v>122.5038227193393</v>
+        <v>338.7653318500147</v>
       </c>
       <c r="O31" t="n">
-        <v>51.9934433849137</v>
+        <v>306.3384429156904</v>
       </c>
       <c r="P31" t="n">
-        <v>242.5841761372536</v>
+        <v>31.97393736734955</v>
       </c>
       <c r="Q31" t="n">
         <v>87.57508605867257</v>
@@ -37168,10 +37168,10 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q33" t="n">
-        <v>278.6564399607566</v>
+        <v>329.3743543021397</v>
       </c>
       <c r="R33" t="n">
-        <v>50.71791434138247</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>199.3734322802403</v>
+        <v>67.90025479469791</v>
       </c>
       <c r="L34" t="n">
         <v>315.1363838440043</v>
       </c>
       <c r="M34" t="n">
-        <v>214.1697059010923</v>
+        <v>345.6428833866354</v>
       </c>
       <c r="N34" t="n">
         <v>338.7653318500147</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>30.76263845869286</v>
+        <v>227.4646535897306</v>
       </c>
       <c r="K36" t="n">
         <v>103.8920227361634</v>
       </c>
       <c r="L36" t="n">
-        <v>170.1094352880266</v>
+        <v>240.8160575100736</v>
       </c>
       <c r="M36" t="n">
         <v>211.2187422979956</v>
@@ -37405,7 +37405,7 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q36" t="n">
-        <v>329.3743543021397</v>
+        <v>61.96571694905471</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>32.8531567825823</v>
       </c>
       <c r="L37" t="n">
-        <v>61.67584943917944</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M37" t="n">
-        <v>335.9651909749989</v>
+        <v>345.6428833866354</v>
       </c>
       <c r="N37" t="n">
         <v>338.7653318500147</v>
@@ -37481,10 +37481,10 @@
         <v>306.3384429156904</v>
       </c>
       <c r="P37" t="n">
-        <v>242.5841761372536</v>
+        <v>67.02103537946466</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.57508605867257</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>227.4646535897306</v>
+        <v>47.03787461508215</v>
       </c>
       <c r="K39" t="n">
-        <v>174.5986449582108</v>
+        <v>355.0254239328592</v>
       </c>
       <c r="L39" t="n">
         <v>170.1094352880266</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>199.3734322802403</v>
+        <v>32.8531567825823</v>
       </c>
       <c r="L40" t="n">
         <v>315.1363838440043</v>
@@ -37715,10 +37715,10 @@
         <v>338.7653318500147</v>
       </c>
       <c r="O40" t="n">
-        <v>174.865265430148</v>
+        <v>306.3384429156904</v>
       </c>
       <c r="P40" t="n">
-        <v>31.97393736734955</v>
+        <v>67.02103537946513</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>97.34182739257321</v>
       </c>
       <c r="R41" t="n">
-        <v>0.5462295300783353</v>
+        <v>0.5462295300786179</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>227.4646535897306</v>
+        <v>30.76263845869286</v>
       </c>
       <c r="K42" t="n">
-        <v>123.8807306168273</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L42" t="n">
         <v>170.1094352880266</v>
@@ -37879,7 +37879,7 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.96571694905471</v>
+        <v>278.6564399607566</v>
       </c>
       <c r="R42" t="n">
         <v>50.71791434138247</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.94800634733291</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>32.8531567825823</v>
       </c>
       <c r="L43" t="n">
-        <v>315.1363838440043</v>
+        <v>61.67584943917944</v>
       </c>
       <c r="M43" t="n">
         <v>345.6428833866354</v>
@@ -37952,13 +37952,13 @@
         <v>338.7653318500147</v>
       </c>
       <c r="O43" t="n">
-        <v>300.4375345804722</v>
+        <v>306.3384429156904</v>
       </c>
       <c r="P43" t="n">
-        <v>31.97393736734955</v>
+        <v>242.5841761372536</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>77.8973936470355</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>97.34182739257321</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5462295300786179</v>
+        <v>0.5462295300783353</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>227.4646535897306</v>
       </c>
       <c r="K45" t="n">
-        <v>123.8807306168273</v>
+        <v>103.8920227361634</v>
       </c>
       <c r="L45" t="n">
         <v>170.1094352880266</v>
@@ -38116,7 +38116,7 @@
         <v>141.7273002655578</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.96571694905471</v>
+        <v>81.9544248297188</v>
       </c>
       <c r="R45" t="n">
         <v>50.71791434138247</v>
@@ -38180,10 +38180,10 @@
         <v>32.8531567825823</v>
       </c>
       <c r="L46" t="n">
-        <v>61.67584943917944</v>
+        <v>315.1363838440043</v>
       </c>
       <c r="M46" t="n">
-        <v>335.9651909749982</v>
+        <v>345.6428833866354</v>
       </c>
       <c r="N46" t="n">
         <v>338.7653318500147</v>
@@ -38192,10 +38192,10 @@
         <v>306.3384429156904</v>
       </c>
       <c r="P46" t="n">
-        <v>242.5841761372536</v>
+        <v>67.02103537946444</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.57508605867257</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
